--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Dataset</t>
   </si>
@@ -29,9 +29,6 @@
     <t>columns</t>
   </si>
   <si>
-    <t>epinions</t>
-  </si>
-  <si>
     <t>context</t>
   </si>
   <si>
@@ -44,18 +41,6 @@
     <t>SAG</t>
   </si>
   <si>
-    <t>99-percentile Best approximation</t>
-  </si>
-  <si>
-    <t>99-percentile running time (sec)</t>
-  </si>
-  <si>
-    <t>CLiMF</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>http://www.cise.ufl.edu/research/sparse/matrices/Gleich/wikipedia-20070206.html</t>
   </si>
   <si>
@@ -135,13 +120,49 @@
   </si>
   <si>
     <t>A(i,j)=1 if user i has tagged web page j as favorable, and a 0 represents no opinion.</t>
+  </si>
+  <si>
+    <t>epinions_train</t>
+  </si>
+  <si>
+    <t>epinions_test</t>
+  </si>
+  <si>
+    <t>https://github.com/gamboviol/climf</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Best approximation</t>
+  </si>
+  <si>
+    <t>avg running time (sec) per iteration</t>
+  </si>
+  <si>
+    <t># of iterations</t>
+  </si>
+  <si>
+    <t>99.9-percentile (MB)</t>
+  </si>
+  <si>
+    <t>avg Memory (MB) per iteration</t>
+  </si>
+  <si>
+    <t>99.9-percentile (sec)</t>
+  </si>
+  <si>
+    <t>epinionsT</t>
+  </si>
+  <si>
+    <t>epinionsS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +181,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,14 +227,21 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -513,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,99 +579,96 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6">
-        <v>3782463</v>
-      </c>
-      <c r="C2" s="6">
-        <v>428440</v>
-      </c>
-      <c r="D2" s="6">
-        <v>896308</v>
-      </c>
-      <c r="E2" s="6">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>23590</v>
+      </c>
+      <c r="C2" s="3">
+        <v>4718</v>
+      </c>
+      <c r="D2" s="3">
+        <v>49288</v>
+      </c>
+      <c r="E2" s="3">
+        <v>292</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6">
-        <v>5021410</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2394385</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2394385</v>
-      </c>
-      <c r="E3" s="6">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>322445</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4718</v>
+      </c>
+      <c r="D3" s="3">
+        <v>49288</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3935</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3782463</v>
+      </c>
+      <c r="C4" s="6">
+        <v>428440</v>
+      </c>
+      <c r="D4" s="6">
+        <v>896308</v>
+      </c>
+      <c r="E4" s="6">
+        <v>21</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6">
-        <v>5105039</v>
-      </c>
-      <c r="C4" s="6">
-        <v>916428</v>
-      </c>
-      <c r="D4" s="6">
-        <v>916428</v>
-      </c>
-      <c r="E4" s="6">
-        <v>16</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5021410</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2394385</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2394385</v>
+      </c>
+      <c r="E5" s="6">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="6">
-        <v>5158388</v>
-      </c>
-      <c r="C5" s="6">
-        <v>735323</v>
-      </c>
-      <c r="D5" s="6">
-        <v>735323</v>
-      </c>
-      <c r="E5" s="6">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -644,16 +676,16 @@
         <v>24</v>
       </c>
       <c r="B6" s="6">
-        <v>9837214</v>
+        <v>5105039</v>
       </c>
       <c r="C6" s="6">
-        <v>820878</v>
+        <v>916428</v>
       </c>
       <c r="D6" s="6">
-        <v>820878</v>
+        <v>916428</v>
       </c>
       <c r="E6" s="6">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>23</v>
@@ -661,114 +693,152 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
+        <v>5158388</v>
+      </c>
+      <c r="C7" s="6">
+        <v>735323</v>
+      </c>
+      <c r="D7" s="6">
+        <v>735323</v>
+      </c>
+      <c r="E7" s="6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="6">
-        <v>16518948</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>9837214</v>
+      </c>
+      <c r="C8" s="6">
+        <v>820878</v>
+      </c>
+      <c r="D8" s="6">
+        <v>820878</v>
+      </c>
+      <c r="E8" s="6">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6">
+        <v>16518948</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="6">
+        <v>22624727</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12471</v>
+      </c>
+      <c r="D10" s="6">
+        <v>872622</v>
+      </c>
+      <c r="E10" s="6">
         <v>36</v>
       </c>
-      <c r="B8" s="6">
-        <v>22624727</v>
-      </c>
-      <c r="C8" s="6">
-        <v>12471</v>
-      </c>
-      <c r="D8" s="6">
-        <v>872622</v>
-      </c>
-      <c r="E8" s="6">
-        <v>36</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="F10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>45030389</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <v>3566907</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D11" s="6">
         <v>3566907</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="6">
         <v>132</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6">
+        <v>79023142</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5363260</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5363260</v>
+      </c>
+      <c r="E12" s="3">
+        <v>175</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6">
-        <v>79023142</v>
-      </c>
-      <c r="C10" s="6">
-        <v>5363260</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5363260</v>
-      </c>
-      <c r="E10" s="3">
-        <v>175</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="B13" s="6">
+        <v>1949412601</v>
+      </c>
+      <c r="C13" s="6">
+        <v>50636154</v>
+      </c>
+      <c r="D13" s="6">
+        <v>50636154</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2483</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1949412601</v>
-      </c>
-      <c r="C11" s="6">
-        <v>50636154</v>
-      </c>
-      <c r="D11" s="6">
-        <v>50636154</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2483</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="10" t="s">
-        <v>38</v>
+      <c r="G14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +846,7 @@
     <sortCondition ref="B2:B14"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="http://www.cise.ufl.edu/research/sparse/matrices/Gleich/wikipedia-20070206.html"/>
+    <hyperlink ref="A11" r:id="rId1" display="http://www.cise.ufl.edu/research/sparse/matrices/Gleich/wikipedia-20070206.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,67 +854,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="11" customWidth="1"/>
+    <col min="2" max="4" width="9.44140625" style="11" customWidth="1"/>
+    <col min="5" max="7" width="9" style="11" customWidth="1"/>
+    <col min="8" max="19" width="9.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Dataset</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Full</t>
   </si>
   <si>
-    <t>Stochastic</t>
-  </si>
-  <si>
-    <t>SAG</t>
-  </si>
-  <si>
     <t>http://www.cise.ufl.edu/research/sparse/matrices/Gleich/wikipedia-20070206.html</t>
   </si>
   <si>
@@ -156,6 +150,15 @@
   </si>
   <si>
     <t>epinionsS</t>
+  </si>
+  <si>
+    <t>SAG-0</t>
+  </si>
+  <si>
+    <t>SAG-t</t>
+  </si>
+  <si>
+    <t>SG</t>
   </si>
 </sst>
 </file>
@@ -579,18 +582,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6">
         <v>23590</v>
@@ -605,12 +608,12 @@
         <v>292</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6">
         <v>322445</v>
@@ -625,12 +628,12 @@
         <v>3935</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6">
         <v>3782463</v>
@@ -645,15 +648,15 @@
         <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6">
         <v>5021410</v>
@@ -668,12 +671,12 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>5105039</v>
@@ -688,12 +691,12 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6">
         <v>5158388</v>
@@ -708,15 +711,15 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6">
         <v>9837214</v>
@@ -731,23 +734,23 @@
         <v>22</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6">
         <v>16518948</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6">
         <v>22624727</v>
@@ -762,15 +765,15 @@
         <v>36</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>45030389</v>
@@ -785,15 +788,15 @@
         <v>132</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6">
         <v>79023142</v>
@@ -808,12 +811,12 @@
         <v>175</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <v>1949412601</v>
@@ -828,17 +831,17 @@
         <v>2483</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -854,129 +857,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" style="11" customWidth="1"/>
-    <col min="2" max="4" width="9.44140625" style="11" customWidth="1"/>
-    <col min="5" max="7" width="9" style="11" customWidth="1"/>
-    <col min="8" max="19" width="9.44140625" style="11" customWidth="1"/>
+    <col min="2" max="24" width="7" style="11" customWidth="1"/>
+    <col min="25" max="25" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="CLiMF" sheetId="2" r:id="rId2"/>
+    <sheet name="parallel" sheetId="3" r:id="rId2"/>
+    <sheet name="CLiMF" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>Dataset</t>
   </si>
@@ -159,6 +160,30 @@
   </si>
   <si>
     <t>SG</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>cannot be parallelized: iterations must be sequential</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>mixNmatchMF()</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF/</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_batchAt_random()</t>
+  </si>
+  <si>
+    <t>swap for-loop becomes parfor-loop</t>
   </si>
 </sst>
 </file>
@@ -857,9 +882,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -995,12 +1073,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>Dataset</t>
   </si>
@@ -138,15 +138,9 @@
     <t># of iterations</t>
   </si>
   <si>
-    <t>99.9-percentile (MB)</t>
-  </si>
-  <si>
     <t>avg Memory (MB) per iteration</t>
   </si>
   <si>
-    <t>99.9-percentile (sec)</t>
-  </si>
-  <si>
     <t>epinionsT</t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>SAG-0</t>
   </si>
   <si>
-    <t>SAG-t</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -174,16 +165,133 @@
     <t>function name</t>
   </si>
   <si>
-    <t>mixNmatchMF()</t>
-  </si>
-  <si>
     <t>./mixNmatchMF/</t>
   </si>
   <si>
-    <t>mixNmatchMF_batchAt_random()</t>
-  </si>
-  <si>
-    <t>swap for-loop becomes parfor-loop</t>
+    <t>max running time (sec) per iteration</t>
+  </si>
+  <si>
+    <t>max Memory (MB) per iteration</t>
+  </si>
+  <si>
+    <t>batch for-loop becomes parfor-loop</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_CLiMF/</t>
+  </si>
+  <si>
+    <t>parfor k=1:nCols</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_data_epinions</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_data_epinions/</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_data_epinionsTrain</t>
+  </si>
+  <si>
+    <t>cannot be parallelized</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_experiment/</t>
+  </si>
+  <si>
+    <t>parallel execution of different datasets</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_experiment_CLiMF</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_options_CLiMF</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_update_memory</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_update_batch</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_objectiveSparse</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_batchAt_random</t>
+  </si>
+  <si>
+    <t>mixNmatchMF</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_data_epinionsTest</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_loss_L2</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_L2/</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_lossAt_L2</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_regularizeAt_L2</t>
+  </si>
+  <si>
+    <t>parfor b=1:totalSize</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_loss_MMMF</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_MMMF/</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_lossAt_MMMF</t>
+  </si>
+  <si>
+    <t>parfor j=1:nCols</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_MNAR/</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_loss_MNAR</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_lossAt_MNAR</t>
+  </si>
+  <si>
+    <t>./mixNmatchMF_WRMF/</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_loss_WRMF</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_lossAt_WRMF</t>
+  </si>
+  <si>
+    <t>not worth it to parallelize</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_experiment_start</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_experiment_gradients</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_objective_CLiMF</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_objectiveAt_CLiMF</t>
+  </si>
+  <si>
+    <t>mixNmatchMF_experiment_save</t>
+  </si>
+  <si>
+    <t>SAG-b</t>
+  </si>
+  <si>
+    <t>parallel execution of different gradient methods</t>
   </si>
 </sst>
 </file>
@@ -221,12 +329,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -242,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,6 +382,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,7 +694,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,50 +997,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="48.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +1294,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -947,42 +1306,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -992,83 +1351,83 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
   <si>
     <t>Dataset</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>mixNmatchMF_lossAt_WRMF</t>
-  </si>
-  <si>
-    <t>not worth it to parallelize</t>
   </si>
   <si>
     <t>mixNmatchMF_experiment_start</t>
@@ -694,7 +691,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,7 +997,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1037,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1062,7 +1059,7 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1081,7 +1078,7 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>73</v>
@@ -1092,7 +1089,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>54</v>
@@ -1158,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>60</v>
@@ -1169,10 +1166,10 @@
         <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1180,7 +1177,7 @@
         <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
@@ -1357,7 +1354,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>5</v>
@@ -1369,7 +1366,7 @@
         <v>43</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>5</v>
@@ -1381,7 +1378,7 @@
         <v>43</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
@@ -1393,7 +1390,7 @@
         <v>43</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>5</v>
@@ -1405,7 +1402,7 @@
         <v>43</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>5</v>
@@ -1417,7 +1414,7 @@
         <v>43</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Dataset</t>
   </si>
@@ -141,12 +141,6 @@
     <t>avg Memory (MB) per iteration</t>
   </si>
   <si>
-    <t>epinionsT</t>
-  </si>
-  <si>
-    <t>epinionsS</t>
-  </si>
-  <si>
     <t>SAG-0</t>
   </si>
   <si>
@@ -168,12 +162,6 @@
     <t>./mixNmatchMF/</t>
   </si>
   <si>
-    <t>max running time (sec) per iteration</t>
-  </si>
-  <si>
-    <t>max Memory (MB) per iteration</t>
-  </si>
-  <si>
     <t>batch for-loop becomes parfor-loop</t>
   </si>
   <si>
@@ -289,6 +277,24 @@
   </si>
   <si>
     <t>parallel execution of different gradient methods</t>
+  </si>
+  <si>
+    <t>99.9-percentile (sec) per iteration</t>
+  </si>
+  <si>
+    <t>99.9-percentile (MB) per iteration</t>
+  </si>
+  <si>
+    <t>epinons</t>
+  </si>
+  <si>
+    <t>Digg</t>
+  </si>
+  <si>
+    <t>Live Journal</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
   </si>
 </sst>
 </file>
@@ -353,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +386,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,7 +698,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +794,7 @@
       <c r="F4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -870,7 +877,7 @@
       <c r="E8" s="6">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -881,7 +888,7 @@
       <c r="B9" s="6">
         <v>16518948</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -927,7 +934,7 @@
       <c r="F11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -947,7 +954,7 @@
       <c r="E12" s="3">
         <v>175</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
@@ -987,6 +994,11 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" display="http://www.cise.ufl.edu/research/sparse/matrices/Gleich/wikipedia-20070206.html"/>
+    <hyperlink ref="G8" r:id="rId2"/>
+    <hyperlink ref="G12" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -996,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1009,277 +1021,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1289,56 +1301,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="24" width="7" style="11" customWidth="1"/>
     <col min="25" max="25" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1348,83 +1360,98 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -10,13 +10,14 @@
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
     <sheet name="parallel" sheetId="3" r:id="rId2"/>
     <sheet name="CLiMF" sheetId="2" r:id="rId3"/>
+    <sheet name="memory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
   <si>
     <t>Dataset</t>
   </si>
@@ -132,18 +133,6 @@
     <t>Best approximation</t>
   </si>
   <si>
-    <t>avg running time (sec) per iteration</t>
-  </si>
-  <si>
-    <t># of iterations</t>
-  </si>
-  <si>
-    <t>avg Memory (MB) per iteration</t>
-  </si>
-  <si>
-    <t>SAG-0</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
@@ -273,18 +262,9 @@
     <t>mixNmatchMF_experiment_save</t>
   </si>
   <si>
-    <t>SAG-b</t>
-  </si>
-  <si>
     <t>parallel execution of different gradient methods</t>
   </si>
   <si>
-    <t>99.9-percentile (sec) per iteration</t>
-  </si>
-  <si>
-    <t>99.9-percentile (MB) per iteration</t>
-  </si>
-  <si>
     <t>epinons</t>
   </si>
   <si>
@@ -295,6 +275,33 @@
   </si>
   <si>
     <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t># of itrn @ convergence</t>
+  </si>
+  <si>
+    <t>99%tile (sec) per itrn</t>
+  </si>
+  <si>
+    <t>avg time (sec) per itrn</t>
+  </si>
+  <si>
+    <t>avg Memory (MB) per itrn</t>
+  </si>
+  <si>
+    <t>max (MB) per itrn</t>
+  </si>
+  <si>
+    <t>SAG-MF0</t>
+  </si>
+  <si>
+    <t>Memory (MB) @ 1st iteration</t>
+  </si>
+  <si>
+    <t>Windows 8.1</t>
   </si>
 </sst>
 </file>
@@ -359,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -387,7 +394,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,277 +1034,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1301,58 +1314,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
-    <col min="2" max="24" width="7" style="11" customWidth="1"/>
-    <col min="25" max="25" width="7" customWidth="1"/>
+    <col min="2" max="19" width="7" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1360,108 +1366,176 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>504</v>
+      </c>
+      <c r="C5">
+        <v>490</v>
+      </c>
+      <c r="D5">
+        <v>5499</v>
+      </c>
+      <c r="E5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
   <si>
     <t>Dataset</t>
   </si>
@@ -301,7 +301,10 @@
     <t>Memory (MB) @ 1st iteration</t>
   </si>
   <si>
-    <t>Windows 8.1</t>
+    <t>SAG-orig</t>
+  </si>
+  <si>
+    <t>CLiMF/Win8.1</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1316,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1327,36 +1333,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1377,7 +1383,7 @@
       <c r="F2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1386,7 +1392,7 @@
       <c r="I2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -1395,7 +1401,7 @@
       <c r="L2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="N2" s="12" t="s">
@@ -1404,7 +1410,7 @@
       <c r="O2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="16" t="s">
         <v>86</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -1413,7 +1419,7 @@
       <c r="R2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="16" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1459,25 +1465,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1490,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>92</v>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>http://www.cise.ufl.edu/research/sparse/matrices/Barabasi/NotreDame_actors.html</t>
   </si>
   <si>
-    <t>digg</t>
-  </si>
-  <si>
     <t>http://www.cise.ufl.edu/research/sparse/matrices/Buss/12month1.html</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>CLiMF/Win8.1</t>
+  </si>
+  <si>
+    <t>digg12month1</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -751,12 +751,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="6">
         <v>23590</v>
@@ -771,12 +771,12 @@
         <v>292</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="6">
         <v>322445</v>
@@ -791,7 +791,7 @@
         <v>3935</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6">
         <v>22624727</v>
@@ -928,10 +928,10 @@
         <v>36</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1004,7 +1004,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1040,277 +1040,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
-        <v>63</v>
-      </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" t="s">
-        <v>68</v>
-      </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
       </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
         <v>73</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1334,32 +1334,32 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
@@ -1372,65 +1372,65 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1440,12 +1440,12 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1476,10 +1476,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1493,23 +1493,23 @@
         <v>5</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1531,12 +1531,12 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="memory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>Dataset</t>
   </si>
@@ -274,9 +275,6 @@
     <t>Wikipedia</t>
   </si>
   <si>
-    <t>SAG</t>
-  </si>
-  <si>
     <t># of itrn @ convergence</t>
   </si>
   <si>
@@ -305,6 +303,18 @@
   </si>
   <si>
     <t>digg12month1</t>
+  </si>
+  <si>
+    <t>cols</t>
+  </si>
+  <si>
+    <t>nnz</t>
+  </si>
+  <si>
+    <t>SAG-MF</t>
+  </si>
+  <si>
+    <t>Mac OS X</t>
   </si>
 </sst>
 </file>
@@ -369,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +413,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +924,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="6">
         <v>22624727</v>
@@ -1323,7 +1334,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,36 +1344,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1375,7 +1389,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
@@ -1384,7 +1398,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>5</v>
@@ -1393,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>5</v>
@@ -1402,7 +1416,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
@@ -1411,7 +1425,7 @@
         <v>37</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -1420,7 +1434,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1463,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,18 +1488,18 @@
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1496,23 +1510,74 @@
         <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>505</v>
+      </c>
+      <c r="C3">
+        <v>494</v>
+      </c>
+      <c r="D3">
+        <v>2391</v>
+      </c>
+      <c r="E3">
+        <v>506</v>
+      </c>
+      <c r="G3" s="6">
+        <v>4718</v>
+      </c>
+      <c r="H3" s="6">
+        <v>49288</v>
+      </c>
+      <c r="I3" s="17">
+        <v>23590</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>498</v>
+      </c>
+      <c r="C4">
+        <v>489</v>
+      </c>
+      <c r="D4">
+        <v>503</v>
+      </c>
+      <c r="E4">
+        <v>498</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
+      <c r="I4" s="17">
+        <v>20411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>26</v>
       </c>
@@ -1523,20 +1588,71 @@
         <v>490</v>
       </c>
       <c r="D5">
-        <v>5499</v>
+        <v>5502</v>
       </c>
       <c r="E5">
         <v>497</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="17">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="17">
+        <v>25000</v>
+      </c>
+      <c r="I5" s="17">
+        <v>5802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>503</v>
+      </c>
+      <c r="C6">
+        <v>489</v>
+      </c>
+      <c r="D6">
+        <v>701</v>
+      </c>
+      <c r="E6">
+        <v>503</v>
+      </c>
+      <c r="G6" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="17">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="17">
+        <v>30418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>84</v>
+      </c>
+      <c r="B7">
+        <v>498</v>
+      </c>
+      <c r="C7">
+        <v>489</v>
+      </c>
+      <c r="D7">
+        <v>699</v>
+      </c>
+      <c r="E7">
+        <v>499</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="17">
+        <v>16974</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="memory" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
   <si>
     <t>Dataset</t>
   </si>
@@ -290,15 +289,9 @@
     <t>max (MB) per itrn</t>
   </si>
   <si>
-    <t>SAG-MF0</t>
-  </si>
-  <si>
     <t>Memory (MB) @ 1st iteration</t>
   </si>
   <si>
-    <t>SAG-orig</t>
-  </si>
-  <si>
     <t>CLiMF/Win8.1</t>
   </si>
   <si>
@@ -311,10 +304,13 @@
     <t>nnz</t>
   </si>
   <si>
-    <t>SAG-MF</t>
-  </si>
-  <si>
     <t>Mac OS X</t>
+  </si>
+  <si>
+    <t>SAG-N</t>
+  </si>
+  <si>
+    <t>SAG-0</t>
   </si>
 </sst>
 </file>
@@ -924,7 +920,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="6">
         <v>22624727</v>
@@ -1333,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
@@ -1479,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,10 +1486,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1510,19 +1506,19 @@
         <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -289,9 +289,6 @@
     <t>max (MB) per itrn</t>
   </si>
   <si>
-    <t>Memory (MB) @ 1st iteration</t>
-  </si>
-  <si>
     <t>CLiMF/Win8.1</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>SAG-0</t>
+  </si>
+  <si>
+    <t>Memory (MB)</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="6">
         <v>22624727</v>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1341,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
@@ -1385,7 +1385,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
@@ -1394,7 +1394,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>5</v>
@@ -1403,7 +1403,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>5</v>
@@ -1412,7 +1412,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
@@ -1421,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -1430,7 +1430,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1475,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,10 +1486,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1506,19 +1506,19 @@
         <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
         <v>93</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1475,7 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
-    <sheet name="parallel" sheetId="3" r:id="rId2"/>
-    <sheet name="CLiMF" sheetId="2" r:id="rId3"/>
-    <sheet name="memory" sheetId="4" r:id="rId4"/>
+    <sheet name="epinions" sheetId="5" r:id="rId2"/>
+    <sheet name="parallel" sheetId="3" r:id="rId3"/>
+    <sheet name="CLiMF" sheetId="2" r:id="rId4"/>
+    <sheet name="memory" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
   <si>
     <t>Dataset</t>
   </si>
@@ -274,9 +275,6 @@
     <t>Wikipedia</t>
   </si>
   <si>
-    <t># of itrn @ convergence</t>
-  </si>
-  <si>
     <t>99%tile (sec) per itrn</t>
   </si>
   <si>
@@ -311,12 +309,44 @@
   </si>
   <si>
     <t>Memory (MB)</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>CLiMF</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>Stochastic</t>
+  </si>
+  <si>
+    <t>SAG lazy</t>
+  </si>
+  <si>
+    <t>Avg Time (sec) / itrn</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>99%tile Time (sec) / itrn</t>
+  </si>
+  <si>
+    <t># of itrns @ convergence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="169" formatCode="#,##0.0000000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000000000000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -414,6 +444,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,7 +771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -920,7 +968,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="6">
         <v>22624727</v>
@@ -1032,6 +1080,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="20"/>
+    <col min="2" max="4" width="22.5546875" style="22" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="17" customWidth="1"/>
+    <col min="7" max="10" width="11.21875" style="24" customWidth="1"/>
+    <col min="11" max="16" width="8.88671875" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0.30537093783118802</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.30537059022623497</v>
+      </c>
+      <c r="D3" s="22">
+        <f>B3-C3</f>
+        <v>3.4760495304375638E-7</v>
+      </c>
+      <c r="E3" s="17">
+        <v>527</v>
+      </c>
+      <c r="F3" s="17">
+        <v>527</v>
+      </c>
+      <c r="G3" s="24">
+        <v>3.2486072899999899E-3</v>
+      </c>
+      <c r="H3" s="24">
+        <v>2.6417601933333302E-3</v>
+      </c>
+      <c r="I3" s="24">
+        <v>8.0864760000000004E-3</v>
+      </c>
+      <c r="J3" s="24">
+        <v>3.7554329999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.39336694517248899</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.39336456343380799</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D7" si="0">B4-C4</f>
+        <v>2.3817386810009999E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D6" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1325,12 +1502,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1518,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>36</v>
@@ -1349,27 +1526,27 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
       <c r="N1" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
@@ -1385,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>5</v>
@@ -1394,7 +1571,7 @@
         <v>37</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>5</v>
@@ -1403,7 +1580,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>5</v>
@@ -1412,7 +1589,7 @@
         <v>37</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>5</v>
@@ -1421,7 +1598,7 @@
         <v>37</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>5</v>
@@ -1430,7 +1607,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1471,7 +1648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -1486,10 +1663,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1506,19 +1683,19 @@
         <v>37</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>96</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
         <v>92</v>
-      </c>
-      <c r="I2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
     <sheet name="epinions" sheetId="5" r:id="rId2"/>
     <sheet name="parallel" sheetId="3" r:id="rId3"/>
-    <sheet name="CLiMF" sheetId="2" r:id="rId4"/>
-    <sheet name="memory" sheetId="4" r:id="rId5"/>
+    <sheet name="approx" sheetId="2" r:id="rId4"/>
+    <sheet name="followUp" sheetId="6" r:id="rId5"/>
+    <sheet name="memory" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
   <si>
     <t>Dataset</t>
   </si>
@@ -35,9 +36,6 @@
     <t>context</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>http://www.cise.ufl.edu/research/sparse/matrices/Gleich/wikipedia-20070206.html</t>
   </si>
   <si>
@@ -275,18 +273,12 @@
     <t>Wikipedia</t>
   </si>
   <si>
-    <t>99%tile (sec) per itrn</t>
-  </si>
-  <si>
     <t>avg time (sec) per itrn</t>
   </si>
   <si>
     <t>avg Memory (MB) per itrn</t>
   </si>
   <si>
-    <t>max (MB) per itrn</t>
-  </si>
-  <si>
     <t>CLiMF/Win8.1</t>
   </si>
   <si>
@@ -296,18 +288,9 @@
     <t>cols</t>
   </si>
   <si>
-    <t>nnz</t>
-  </si>
-  <si>
     <t>Mac OS X</t>
   </si>
   <si>
-    <t>SAG-N</t>
-  </si>
-  <si>
-    <t>SAG-0</t>
-  </si>
-  <si>
     <t>Memory (MB)</t>
   </si>
   <si>
@@ -336,16 +319,86 @@
   </si>
   <si>
     <t># of itrns @ convergence</t>
+  </si>
+  <si>
+    <t>SAG-A</t>
+  </si>
+  <si>
+    <t>Sparse L2</t>
+  </si>
+  <si>
+    <t>descent: smaller is better</t>
+  </si>
+  <si>
+    <t>ascent: larger is better</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>SAG minus SG</t>
+  </si>
+  <si>
+    <t>slower</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>99%-tile</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>99.9%tile (sec) per itrn</t>
+  </si>
+  <si>
+    <t>99.9%tile (MB) per itrn</t>
+  </si>
+  <si>
+    <t>SAG-A is X times slower</t>
+  </si>
+  <si>
+    <t>SG@max</t>
+  </si>
+  <si>
+    <t>SAG-A@5000</t>
+  </si>
+  <si>
+    <t>Best approx, given sim. amt time</t>
+  </si>
+  <si>
+    <t>Least # itrn to reach similar approx.</t>
+  </si>
+  <si>
+    <t>max itrns</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>non-zero's</t>
+  </si>
+  <si>
+    <t>equal to # SG iterations</t>
+  </si>
+  <si>
+    <t>*Given more time, i.e. an amount of time similar to SAG-A to account for re-computing, can SG yield an approximiation similar to or better than SAG?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="#,##0.0000000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000000000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.0000E+00"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -405,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,12 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,24 +493,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -771,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,18 +892,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6">
         <v>23590</v>
@@ -826,12 +918,12 @@
         <v>292</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6">
         <v>322445</v>
@@ -846,12 +938,12 @@
         <v>3935</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6">
         <v>3782463</v>
@@ -866,15 +958,15 @@
         <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6">
         <v>5021410</v>
@@ -889,12 +981,12 @@
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6">
         <v>5105039</v>
@@ -909,12 +1001,12 @@
         <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6">
         <v>5158388</v>
@@ -929,15 +1021,15 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>9837214</v>
@@ -952,46 +1044,37 @@
         <v>22</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="6">
         <v>16518948</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="6">
-        <v>22624727</v>
-      </c>
-      <c r="C10" s="6">
-        <v>12471</v>
-      </c>
-      <c r="D10" s="6">
-        <v>872622</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6">
         <v>36</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
         <v>45030389</v>
@@ -1006,15 +1089,15 @@
         <v>132</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>79023142</v>
@@ -1029,12 +1112,12 @@
         <v>175</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>1949412601</v>
@@ -1049,17 +1132,17 @@
         <v>2483</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1082,116 +1165,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="20"/>
-    <col min="2" max="4" width="22.5546875" style="22" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" style="17" customWidth="1"/>
-    <col min="7" max="10" width="11.21875" style="24" customWidth="1"/>
-    <col min="11" max="16" width="8.88671875" style="20"/>
+    <col min="1" max="1" width="8.88671875" style="18"/>
+    <col min="2" max="4" width="22.5546875" style="19" customWidth="1"/>
+    <col min="5" max="6" width="11.44140625" style="15" customWidth="1"/>
+    <col min="7" max="10" width="11.21875" style="21" customWidth="1"/>
+    <col min="11" max="16" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="23"/>
+      <c r="B1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="22">
+      <c r="A3" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="19">
         <v>0.30537093783118802</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>0.30537059022623497</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <f>B3-C3</f>
         <v>3.4760495304375638E-7</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="15">
         <v>527</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="15">
         <v>527</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="21">
         <v>3.2486072899999899E-3</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="21">
         <v>2.6417601933333302E-3</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="21">
         <v>8.0864760000000004E-3</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="21">
         <v>3.7554329999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="22">
+      <c r="A4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="19">
         <v>0.39336694517248899</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>0.39336456343380799</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <f t="shared" ref="D4:D7" si="0">B4-C4</f>
         <v>2.3817386810009999E-6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="A5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1224,277 +1307,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="B31" t="s">
-        <v>73</v>
-      </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1504,145 +1587,1058 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:Y24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
-    <col min="2" max="19" width="7" style="11" customWidth="1"/>
+    <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="2.88671875" style="28" customWidth="1"/>
+    <col min="7" max="9" width="7.5546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
+    <col min="12" max="14" width="6.21875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="8.44140625" style="24" customWidth="1"/>
+    <col min="16" max="18" width="6.6640625" style="24" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" style="24" customWidth="1"/>
+    <col min="20" max="25" width="7" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32">
+        <v>500</v>
+      </c>
+      <c r="H3" s="32">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="32">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="37"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="E6" s="28">
+        <f>D6-C6</f>
+        <v>-1.8499999999999961E-2</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="32">
+        <v>500</v>
+      </c>
+      <c r="H6" s="32">
+        <v>2473</v>
+      </c>
+      <c r="I6" s="32">
+        <v>2474</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="24">
+        <v>7.2293000000000003</v>
+      </c>
+      <c r="L6" s="24">
+        <v>1.8E-3</v>
+      </c>
+      <c r="M6" s="24">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="N6" s="24">
+        <f>M6/L6</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="O6" s="24">
+        <v>7.8907999999999996</v>
+      </c>
+      <c r="P6" s="24">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="R6" s="24">
+        <f>Q6/P6</f>
+        <v>1.7586206896551726</v>
+      </c>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+    </row>
+    <row r="7" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B7" s="28">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.3125</v>
+      </c>
+      <c r="D7" s="28">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" ref="E7:E24" si="0">D7-C7</f>
+        <v>-0.12440000000000001</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="32">
+        <v>500</v>
+      </c>
+      <c r="H7" s="34">
+        <v>915</v>
+      </c>
+      <c r="I7" s="34">
+        <v>4489</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="24">
+        <v>1.8077000000000001</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" ref="N7:N24" si="1">M7/L7</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="O7" s="24">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="P7" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R7" s="24">
+        <f t="shared" ref="R7:R24" si="2">Q7/P7</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+    </row>
+    <row r="8" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="28">
+        <v>0.29849999999999999</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="32">
+        <v>500</v>
+      </c>
+      <c r="H8" s="32">
+        <v>4144</v>
+      </c>
+      <c r="I8" s="32">
+        <v>4145</v>
+      </c>
+      <c r="J8" s="31"/>
+      <c r="K8" s="24">
+        <v>2.0480999999999998</v>
+      </c>
+      <c r="L8" s="24">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M8" s="24">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="N8" s="24">
+        <f t="shared" si="1"/>
+        <v>1.8823529411764708</v>
+      </c>
+      <c r="O8" s="24">
+        <v>2.3018999999999998</v>
+      </c>
+      <c r="P8" s="24">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R8" s="24">
+        <f t="shared" si="2"/>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+    </row>
+    <row r="9" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="B9" s="28">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="D9" s="28">
+        <v>0.27789999999999998</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>-3.8000000000000034E-2</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="32">
+        <v>500</v>
+      </c>
+      <c r="H9" s="34">
+        <v>1862</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1357</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="24">
+        <v>6.2801</v>
+      </c>
+      <c r="L9" s="24">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M9" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="N9" s="24">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="O9" s="24">
+        <v>7.0240999999999998</v>
+      </c>
+      <c r="P9" s="24">
+        <v>2.3E-3</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="R9" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4782608695652173</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+    </row>
+    <row r="10" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>84</v>
+      <c r="B10" s="28">
+        <v>0.3014</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="D10" s="28">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>-3.2599999999999962E-2</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="32">
+        <v>500</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3856</v>
+      </c>
+      <c r="I10" s="32">
+        <v>3857</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="24">
+        <v>4.0510999999999999</v>
+      </c>
+      <c r="L10" s="24">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M10" s="24">
+        <v>2.8E-3</v>
+      </c>
+      <c r="N10" s="24">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="O10" s="24">
+        <v>4.2845000000000004</v>
+      </c>
+      <c r="P10" s="24">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R10" s="24">
+        <f t="shared" si="2"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="28">
+        <v>-0.27529999999999999</v>
+      </c>
+      <c r="C13" s="28">
+        <v>-0.27350000000000002</v>
+      </c>
+      <c r="D13" s="28">
+        <v>-0.2727</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>8.0000000000002292E-4</v>
+      </c>
+      <c r="G13" s="32">
+        <v>500</v>
+      </c>
+      <c r="H13" s="32">
+        <v>1867</v>
+      </c>
+      <c r="I13" s="32">
+        <v>1868</v>
+      </c>
+      <c r="K13" s="24">
+        <v>38.302199999999999</v>
+      </c>
+      <c r="L13" s="24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="1"/>
+        <v>4.7878787878787881</v>
+      </c>
+      <c r="O13" s="24">
+        <v>40.990699999999997</v>
+      </c>
+      <c r="P13" s="24">
+        <v>5.3E-3</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" si="2"/>
+        <v>2.358490566037736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="28">
+        <v>-1.0867</v>
+      </c>
+      <c r="C14" s="28">
+        <v>-1.0865</v>
+      </c>
+      <c r="D14" s="28">
+        <v>-1.0665</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G14" s="32">
+        <v>500</v>
+      </c>
+      <c r="H14" s="32">
+        <v>1485</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1486</v>
+      </c>
+      <c r="K14" s="24">
+        <v>20.59</v>
+      </c>
+      <c r="L14" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M14" s="24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="O14" s="24">
+        <v>23.676300000000001</v>
+      </c>
+      <c r="P14" s="24">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="Q14" s="24">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="R14" s="24">
+        <f t="shared" si="2"/>
+        <v>1.8135593220338984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="28">
+        <v>-0.26960000000000001</v>
+      </c>
+      <c r="C15" s="28">
+        <v>-0.27150000000000002</v>
+      </c>
+      <c r="D15" s="28">
+        <v>-0.2712</v>
+      </c>
+      <c r="E15" s="28">
+        <f t="shared" si="0"/>
+        <v>3.0000000000002247E-4</v>
+      </c>
+      <c r="G15" s="32">
+        <v>500</v>
+      </c>
+      <c r="H15" s="32">
+        <v>248</v>
+      </c>
+      <c r="I15" s="32">
+        <v>249</v>
+      </c>
+      <c r="K15" s="24">
+        <v>8.3247999999999998</v>
+      </c>
+      <c r="L15" s="24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="M15" s="24">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="N15" s="24">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="O15" s="24">
+        <v>8.548</v>
+      </c>
+      <c r="P15" s="24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q15" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="28">
+        <v>-0.27650000000000002</v>
+      </c>
+      <c r="C16" s="28">
+        <v>-0.27650000000000002</v>
+      </c>
+      <c r="D16" s="28">
+        <v>-0.27460000000000001</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000128E-3</v>
+      </c>
+      <c r="G16" s="32">
+        <v>500</v>
+      </c>
+      <c r="H16" s="32">
+        <v>916</v>
+      </c>
+      <c r="I16" s="32">
+        <v>917</v>
+      </c>
+      <c r="K16" s="24">
+        <v>33.615400000000001</v>
+      </c>
+      <c r="L16" s="24">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M16" s="24">
+        <v>1.26E-2</v>
+      </c>
+      <c r="N16" s="24">
+        <f t="shared" si="1"/>
+        <v>5.04</v>
+      </c>
+      <c r="O16" s="24">
+        <v>37.056399999999996</v>
+      </c>
+      <c r="P16" s="24">
+        <v>5.3E-3</v>
+      </c>
+      <c r="Q16" s="24">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="2"/>
+        <v>1.9811320754716981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="28">
+        <v>-0.27579999999999999</v>
+      </c>
+      <c r="C17" s="28">
+        <v>-0.2757</v>
+      </c>
+      <c r="D17" s="28">
+        <v>-0.27379999999999999</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000128E-3</v>
+      </c>
+      <c r="G17" s="32">
+        <v>500</v>
+      </c>
+      <c r="H17" s="32">
+        <v>3459</v>
+      </c>
+      <c r="I17" s="32">
+        <v>3460</v>
+      </c>
+      <c r="K17" s="24">
+        <v>19.432700000000001</v>
+      </c>
+      <c r="L17" s="24">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="M17" s="24">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="N17" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O17" s="24">
+        <v>21.774699999999999</v>
+      </c>
+      <c r="P17" s="24">
+        <v>3.8E-3</v>
+      </c>
+      <c r="Q17" s="24">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="R17" s="24">
+        <f t="shared" si="2"/>
+        <v>2.0526315789473681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="28">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C20" s="28">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D20" s="28">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>-1.17E-2</v>
+      </c>
+      <c r="G20" s="32">
+        <v>500</v>
+      </c>
+      <c r="H20" s="32">
+        <v>2487</v>
+      </c>
+      <c r="I20" s="32">
+        <v>2488</v>
+      </c>
+      <c r="K20" s="24">
+        <v>11.6623</v>
+      </c>
+      <c r="L20" s="24">
+        <v>1.9E-3</v>
+      </c>
+      <c r="M20" s="24">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="N20" s="24">
+        <f t="shared" si="1"/>
+        <v>3.0526315789473681</v>
+      </c>
+      <c r="O20" s="24">
+        <v>12.8986</v>
+      </c>
+      <c r="P20" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="Q20" s="24">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R20" s="24">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="28">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+      <c r="C21" s="29">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="D21" s="29">
+        <v>-1.41E-2</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>-1.29E-2</v>
+      </c>
+      <c r="G21" s="32">
+        <v>500</v>
+      </c>
+      <c r="H21" s="32">
+        <v>4805</v>
+      </c>
+      <c r="I21" s="32">
+        <v>4806</v>
+      </c>
+      <c r="K21" s="24">
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="L21" s="24">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M21" s="24">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N21" s="24">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="O21" s="24">
+        <v>2.6392000000000002</v>
+      </c>
+      <c r="P21" s="24">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="Q21" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="R21" s="24">
+        <f t="shared" si="2"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="28">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="C22" s="28">
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="D22" s="28">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
+        <v>-3.8000000000000004E-3</v>
+      </c>
+      <c r="G22" s="32">
+        <v>500</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1137</v>
+      </c>
+      <c r="I22" s="32">
+        <v>1138</v>
+      </c>
+      <c r="K22" s="24">
+        <v>2.6092</v>
+      </c>
+      <c r="L22" s="24">
+        <v>1.8E-3</v>
+      </c>
+      <c r="M22" s="24">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="N22" s="24">
+        <f t="shared" si="1"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="O22" s="24">
+        <v>3.0699000000000001</v>
+      </c>
+      <c r="P22" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q22" s="24">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="R22" s="24">
+        <f t="shared" si="2"/>
+        <v>1.5666666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="28">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="C23" s="29">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D23" s="29">
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>-1.1299999999999999E-2</v>
+      </c>
+      <c r="G23" s="32">
+        <v>500</v>
+      </c>
+      <c r="H23" s="34">
+        <v>4838</v>
+      </c>
+      <c r="I23" s="34">
+        <v>470</v>
+      </c>
+      <c r="K23" s="24">
+        <v>7.2591999999999999</v>
+      </c>
+      <c r="L23" s="24">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M23" s="24">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="N23" s="24">
+        <f t="shared" si="1"/>
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="O23" s="24">
+        <v>8.2581000000000007</v>
+      </c>
+      <c r="P23" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="Q23" s="24">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="R23" s="24">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="28">
+        <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="C24" s="29">
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="D24" s="29">
+        <v>-0.03</v>
+      </c>
+      <c r="E24" s="28">
+        <f t="shared" si="0"/>
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="G24" s="32">
+        <v>500</v>
+      </c>
+      <c r="H24" s="32">
+        <v>4773</v>
+      </c>
+      <c r="I24" s="32">
+        <v>4774</v>
+      </c>
+      <c r="K24" s="24">
+        <v>4.6547000000000001</v>
+      </c>
+      <c r="L24" s="24">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M24" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="24">
+        <f t="shared" si="1"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="O24" s="24">
+        <v>4.8853999999999997</v>
+      </c>
+      <c r="P24" s="24">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q24" s="24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="R24" s="24">
+        <f t="shared" si="2"/>
+        <v>1.8333333333333335</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="Q1:S1"/>
+  <mergeCells count="9">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="W1:Y1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1650,68 +2646,764 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
+    <col min="2" max="4" width="6.77734375" style="25" customWidth="1"/>
+    <col min="5" max="6" width="6.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" customWidth="1"/>
+    <col min="8" max="9" width="14.21875" style="21" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="39"/>
+      <c r="J1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="40"/>
+    </row>
+    <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="15">
+        <v>50000</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="15">
+        <v>50000</v>
+      </c>
+      <c r="K3" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="25">
+        <f>approx!N6</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="C6" s="25">
+        <f>approx!R6</f>
+        <v>1.7586206896551726</v>
+      </c>
+      <c r="D6" s="25">
+        <f>MAX(B6,C6)</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="E6" s="15">
+        <f>$E$3*B6</f>
+        <v>12222.222222222223</v>
+      </c>
+      <c r="F6" s="15">
+        <f>$E$3*C6</f>
+        <v>8793.1034482758623</v>
+      </c>
+      <c r="G6" s="15">
+        <f>MAX(E6,F6)</f>
+        <v>12222.222222222223</v>
+      </c>
+      <c r="I6" s="21">
+        <f>approx!D6</f>
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="K6" s="15">
+        <f>approx!I6</f>
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="25">
+        <f>approx!N7</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="C7" s="25">
+        <f>approx!R7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" ref="D7:D24" si="0">MAX(B7,C7)</f>
+        <v>1.3846153846153846</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" ref="E7:E24" si="1">$E$3*B7</f>
+        <v>6923.0769230769229</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" ref="F7:F24" si="2">$E$3*C7</f>
+        <v>5000</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" ref="G7:G24" si="3">MAX(E7,F7)</f>
+        <v>6923.0769230769229</v>
+      </c>
+      <c r="I7" s="21">
+        <f>approx!D7</f>
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="K7" s="15">
+        <f>approx!I7</f>
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="25">
+        <f>approx!N8</f>
+        <v>1.8823529411764708</v>
+      </c>
+      <c r="C8" s="25">
+        <f>approx!R8</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>1.8823529411764708</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>9411.7647058823532</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="2"/>
+        <v>7777.7777777777765</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="3"/>
+        <v>9411.7647058823532</v>
+      </c>
+      <c r="I8" s="21">
+        <f>approx!D8</f>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K8" s="15">
+        <f>approx!I8</f>
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="25">
+        <f>approx!N9</f>
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="25">
+        <f>approx!R9</f>
+        <v>1.4782608695652173</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="2"/>
+        <v>7391.3043478260861</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="I9" s="21">
+        <f>approx!D9</f>
+        <v>0.27789999999999998</v>
+      </c>
+      <c r="K9" s="15">
+        <f>approx!I9</f>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="25">
+        <f>approx!N10</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C10" s="25">
+        <f>approx!R10</f>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="1"/>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="2"/>
+        <v>6818.181818181818</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="3"/>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="I10" s="21">
+        <f>approx!D10</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K10" s="15">
+        <f>approx!I10</f>
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="25">
+        <f>approx!N13</f>
+        <v>4.7878787878787881</v>
+      </c>
+      <c r="C13" s="25">
+        <f>approx!R13</f>
+        <v>2.358490566037736</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>4.7878787878787881</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="1"/>
+        <v>23939.39393939394</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="2"/>
+        <v>11792.45283018868</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="3"/>
+        <v>23939.39393939394</v>
+      </c>
+      <c r="I13" s="21">
+        <f>approx!D13</f>
+        <v>-0.2727</v>
+      </c>
+      <c r="K13" s="15">
+        <f>approx!I13</f>
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="25">
+        <f>approx!N14</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="C14" s="25">
+        <f>approx!R14</f>
+        <v>1.8135593220338984</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="2"/>
+        <v>9067.796610169491</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="3"/>
+        <v>18000</v>
+      </c>
+      <c r="I14" s="21">
+        <f>approx!D14</f>
+        <v>-1.0665</v>
+      </c>
+      <c r="K14" s="15">
+        <f>approx!I14</f>
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="25">
+        <f>approx!N15</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="C15" s="25">
+        <f>approx!R15</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="1"/>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="2"/>
+        <v>7333.333333333333</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="3"/>
+        <v>11666.666666666668</v>
+      </c>
+      <c r="I15" s="21">
+        <f>approx!D15</f>
+        <v>-0.2712</v>
+      </c>
+      <c r="K15" s="15">
+        <f>approx!I15</f>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="25">
+        <f>approx!N16</f>
+        <v>5.04</v>
+      </c>
+      <c r="C16" s="25">
+        <f>approx!R16</f>
+        <v>1.9811320754716981</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="0"/>
+        <v>5.04</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="1"/>
+        <v>25200</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="2"/>
+        <v>9905.6603773584902</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="3"/>
+        <v>25200</v>
+      </c>
+      <c r="I16" s="21">
+        <f>approx!D16</f>
+        <v>-0.27460000000000001</v>
+      </c>
+      <c r="K16" s="15">
+        <f>approx!I16</f>
+        <v>917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="25">
+        <f>approx!N17</f>
+        <v>4</v>
+      </c>
+      <c r="C17" s="25">
+        <f>approx!R17</f>
+        <v>2.0526315789473681</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="2"/>
+        <v>10263.15789473684</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="I17" s="21">
+        <f>approx!D17</f>
+        <v>-0.27379999999999999</v>
+      </c>
+      <c r="K17" s="15">
+        <f>approx!I17</f>
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="25">
+        <f>approx!N20</f>
+        <v>3.0526315789473681</v>
+      </c>
+      <c r="C20" s="25">
+        <f>approx!R20</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="0"/>
+        <v>3.0526315789473681</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="1"/>
+        <v>15263.15789473684</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="3"/>
+        <v>15263.15789473684</v>
+      </c>
+      <c r="I20" s="21">
+        <f>approx!D20</f>
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="K20" s="15">
+        <f>approx!I20</f>
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="25">
+        <f>approx!N21</f>
+        <v>1.5</v>
+      </c>
+      <c r="C21" s="25">
+        <f>approx!R21</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="2"/>
+        <v>5714.2857142857138</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+      <c r="I21" s="21">
+        <f>approx!D21</f>
+        <v>-1.41E-2</v>
+      </c>
+      <c r="K21" s="15">
+        <f>approx!I21</f>
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="25">
+        <f>approx!N22</f>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="C22" s="25">
+        <f>approx!R22</f>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="0"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="1"/>
+        <v>9444.4444444444434</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="2"/>
+        <v>7833.333333333333</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="3"/>
+        <v>9444.4444444444434</v>
+      </c>
+      <c r="I22" s="21">
+        <f>approx!D22</f>
+        <v>-7.7000000000000002E-3</v>
+      </c>
+      <c r="K22" s="15">
+        <f>approx!I22</f>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="25">
+        <f>approx!N23</f>
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="C23" s="25">
+        <f>approx!R23</f>
+        <v>1.75</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="0"/>
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="1"/>
+        <v>13214.285714285714</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="2"/>
+        <v>8750</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="3"/>
+        <v>13214.285714285714</v>
+      </c>
+      <c r="I23" s="21">
+        <f>approx!D23</f>
+        <v>-6.4999999999999997E-3</v>
+      </c>
+      <c r="K23" s="15">
+        <f>approx!I23</f>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="25">
+        <f>approx!N24</f>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="C24" s="25">
+        <f>approx!R24</f>
+        <v>1.8333333333333335</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000004</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="1"/>
+        <v>12500.000000000002</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="2"/>
+        <v>9166.6666666666679</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="3"/>
+        <v>12500.000000000002</v>
+      </c>
+      <c r="I24" s="21">
+        <f>approx!D24</f>
+        <v>-0.03</v>
+      </c>
+      <c r="K24" s="15">
+        <f>approx!I24</f>
+        <v>4774</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="9" width="10.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
+      <c r="H2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="B3" s="15">
         <v>505</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="15">
         <v>494</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="46">
         <v>2391</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="46">
         <v>506</v>
       </c>
       <c r="G3" s="6">
@@ -1720,112 +3412,193 @@
       <c r="H3" s="6">
         <v>49288</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>23590</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15">
         <v>498</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="15">
         <v>489</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
         <v>503</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="15">
         <v>498</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="15">
         <v>500</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="15">
         <v>500</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>20411</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="B5" s="15">
         <v>504</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="15">
         <v>490</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="46">
         <v>5502</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="46">
         <v>497</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>25000</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>25000</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>5802</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6">
+        <v>82</v>
+      </c>
+      <c r="B6" s="15">
         <v>503</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="15">
         <v>489</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
         <v>701</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="15">
         <v>503</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>5000</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>5000</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>30418</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7">
+        <v>83</v>
+      </c>
+      <c r="B7" s="15">
         <v>498</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="15">
         <v>489</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
         <v>699</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="15">
         <v>499</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>5000</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>5000</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <v>16974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4718</v>
+      </c>
+      <c r="H10" s="6">
+        <v>49288</v>
+      </c>
+      <c r="I10" s="6">
+        <v>322445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15">
+        <v>928</v>
+      </c>
+      <c r="G11" s="6">
+        <v>12471</v>
+      </c>
+      <c r="H11" s="6">
+        <v>872622</v>
+      </c>
+      <c r="I11" s="6">
+        <v>22624727</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="6">
+        <v>428440</v>
+      </c>
+      <c r="H12" s="6">
+        <v>896308</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3782463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="15">
+        <v>2660</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5363260</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5363260</v>
+      </c>
+      <c r="I13" s="6">
+        <v>79023142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3566907</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3566907</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45030389</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
   <si>
     <t>Dataset</t>
   </si>
@@ -342,36 +342,12 @@
     <t>SAG minus SG</t>
   </si>
   <si>
-    <t>slower</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>99%-tile</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>99.9%tile (sec) per itrn</t>
   </si>
   <si>
     <t>99.9%tile (MB) per itrn</t>
   </si>
   <si>
-    <t>SAG-A is X times slower</t>
-  </si>
-  <si>
-    <t>SG@max</t>
-  </si>
-  <si>
-    <t>SAG-A@5000</t>
-  </si>
-  <si>
-    <t>Best approx, given sim. amt time</t>
-  </si>
-  <si>
     <t>Least # itrn to reach similar approx.</t>
   </si>
   <si>
@@ -384,23 +360,79 @@
     <t>non-zero's</t>
   </si>
   <si>
-    <t>equal to # SG iterations</t>
-  </si>
-  <si>
-    <t>*Given more time, i.e. an amount of time similar to SAG-A to account for re-computing, can SG yield an approximiation similar to or better than SAG?</t>
+    <t># of more itrns in SG</t>
+  </si>
+  <si>
+    <t>total # of itrns in SG</t>
+  </si>
+  <si>
+    <t>Best approx, given equal time</t>
+  </si>
+  <si>
+    <t>OOM</t>
+  </si>
+  <si>
+    <t>Out of Memory</t>
+  </si>
+  <si>
+    <t>RAM (GB)</t>
+  </si>
+  <si>
+    <t>&gt; 5,000</t>
+  </si>
+  <si>
+    <t>Digg*</t>
+  </si>
+  <si>
+    <t>*99%tile time are the same, so we used avg time to calculate multiplier</t>
+  </si>
+  <si>
+    <t>Given more time, i.e. an amount of time similar to SAG-A to account for re-computing, can SG yield an approximiation similar to or better than SAG?</t>
+  </si>
+  <si>
+    <t>99%tile (sec) to reach better approx.</t>
+  </si>
+  <si>
+    <t>&gt; 20,000</t>
+  </si>
+  <si>
+    <t>&gt; 76.00</t>
+  </si>
+  <si>
+    <t>&gt; 42.00</t>
+  </si>
+  <si>
+    <t>&gt; 36.00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SAG time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SG time</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.0000E+00"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +457,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -458,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,13 +564,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +590,34 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -864,7 +926,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1357,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,14 +1664,14 @@
     <col min="7" max="9" width="7.5546875" style="32" customWidth="1"/>
     <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
-    <col min="12" max="14" width="6.21875" style="24" customWidth="1"/>
-    <col min="15" max="15" width="8.44140625" style="24" customWidth="1"/>
-    <col min="16" max="18" width="6.6640625" style="24" customWidth="1"/>
-    <col min="19" max="19" width="2.109375" style="24" customWidth="1"/>
-    <col min="20" max="25" width="7" style="11" customWidth="1"/>
+    <col min="12" max="13" width="6.21875" style="24" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" style="24" customWidth="1"/>
+    <col min="15" max="16" width="6.6640625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" style="24" customWidth="1"/>
+    <col min="18" max="23" width="7" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
@@ -1631,26 +1693,24 @@
       </c>
       <c r="L1" s="44"/>
       <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44" t="s">
-        <v>111</v>
-      </c>
+      <c r="N1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="44"/>
       <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="42" t="s">
+      <c r="Q1" s="26"/>
+      <c r="R1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="U1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42" t="s">
+        <v>108</v>
+      </c>
       <c r="V1" s="42"/>
-      <c r="W1" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="42"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1686,44 +1746,38 @@
       <c r="M2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>104</v>
       </c>
+      <c r="O2" s="26" t="s">
+        <v>36</v>
+      </c>
       <c r="P2" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="S2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="T2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="R2" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="W2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -1739,7 +1793,7 @@
       <c r="I3" s="32">
         <v>5000</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="32"/>
       <c r="L3" s="32"/>
       <c r="M3" s="32"/>
@@ -1753,10 +1807,8 @@
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>101</v>
       </c>
@@ -1768,7 +1820,7 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>80</v>
       </c>
@@ -1806,31 +1858,23 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="N6" s="24">
-        <f>M6/L6</f>
-        <v>2.4444444444444446</v>
+        <v>7.8907999999999996</v>
       </c>
       <c r="O6" s="24">
-        <v>7.8907999999999996</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="P6" s="24">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="Q6" s="24">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="R6" s="24">
-        <f>Q6/P6</f>
-        <v>1.7586206896551726</v>
-      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-    </row>
-    <row r="7" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>81</v>
       </c>
@@ -1868,31 +1912,23 @@
         <v>1.8E-3</v>
       </c>
       <c r="N7" s="24">
-        <f t="shared" ref="N7:N24" si="1">M7/L7</f>
-        <v>1.3846153846153846</v>
+        <v>2.0920000000000001</v>
       </c>
       <c r="O7" s="24">
-        <v>2.0920000000000001</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="P7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="Q7" s="24">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="R7" s="24">
-        <f t="shared" ref="R7:R24" si="2">Q7/P7</f>
-        <v>1</v>
-      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-    </row>
-    <row r="8" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>25</v>
       </c>
@@ -1930,31 +1966,23 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="N8" s="24">
-        <f t="shared" si="1"/>
-        <v>1.8823529411764708</v>
+        <v>2.3018999999999998</v>
       </c>
       <c r="O8" s="24">
-        <v>2.3018999999999998</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="P8" s="24">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="Q8" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="R8" s="24">
-        <f t="shared" si="2"/>
-        <v>1.5555555555555554</v>
-      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-    </row>
-    <row r="9" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>82</v>
       </c>
@@ -1992,31 +2020,23 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="N9" s="24">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>7.0240999999999998</v>
       </c>
       <c r="O9" s="24">
-        <v>7.0240999999999998</v>
+        <v>2.3E-3</v>
       </c>
       <c r="P9" s="24">
-        <v>2.3E-3</v>
-      </c>
-      <c r="Q9" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="R9" s="24">
-        <f t="shared" si="2"/>
-        <v>1.4782608695652173</v>
-      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-    </row>
-    <row r="10" spans="1:25" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>83</v>
       </c>
@@ -2054,31 +2074,23 @@
         <v>2.8E-3</v>
       </c>
       <c r="N10" s="24">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
+        <v>4.2845000000000004</v>
       </c>
       <c r="O10" s="24">
-        <v>4.2845000000000004</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="P10" s="24">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="Q10" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R10" s="24">
-        <f t="shared" si="2"/>
-        <v>1.3636363636363635</v>
-      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>92</v>
       </c>
@@ -2088,7 +2100,7 @@
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>80</v>
       </c>
@@ -2124,24 +2136,16 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="N13" s="24">
-        <f t="shared" si="1"/>
-        <v>4.7878787878787881</v>
+        <v>40.990699999999997</v>
       </c>
       <c r="O13" s="24">
-        <v>40.990699999999997</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P13" s="24">
-        <v>5.3E-3</v>
-      </c>
-      <c r="Q13" s="24">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="R13" s="24">
-        <f t="shared" si="2"/>
-        <v>2.358490566037736</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>81</v>
       </c>
@@ -2177,24 +2181,16 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N14" s="24">
-        <f t="shared" si="1"/>
-        <v>3.5999999999999996</v>
+        <v>23.676300000000001</v>
       </c>
       <c r="O14" s="24">
-        <v>23.676300000000001</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="P14" s="24">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="Q14" s="24">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="R14" s="24">
-        <f t="shared" si="2"/>
-        <v>1.8135593220338984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
@@ -2230,24 +2226,16 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="N15" s="24">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
+        <v>8.548</v>
       </c>
       <c r="O15" s="24">
-        <v>8.548</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="P15" s="24">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q15" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="R15" s="24">
-        <f t="shared" si="2"/>
-        <v>1.4666666666666666</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>82</v>
       </c>
@@ -2283,24 +2271,16 @@
         <v>1.26E-2</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" si="1"/>
-        <v>5.04</v>
+        <v>37.056399999999996</v>
       </c>
       <c r="O16" s="24">
-        <v>37.056399999999996</v>
+        <v>5.3E-3</v>
       </c>
       <c r="P16" s="24">
-        <v>5.3E-3</v>
-      </c>
-      <c r="Q16" s="24">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="R16" s="24">
-        <f t="shared" si="2"/>
-        <v>1.9811320754716981</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>83</v>
       </c>
@@ -2336,24 +2316,16 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="N17" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>21.774699999999999</v>
       </c>
       <c r="O17" s="24">
-        <v>21.774699999999999</v>
+        <v>3.8E-3</v>
       </c>
       <c r="P17" s="24">
-        <v>3.8E-3</v>
-      </c>
-      <c r="Q17" s="24">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="R17" s="24">
-        <f t="shared" si="2"/>
-        <v>2.0526315789473681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
@@ -2363,7 +2335,7 @@
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>80</v>
       </c>
@@ -2399,24 +2371,16 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="N20" s="24">
-        <f t="shared" si="1"/>
-        <v>3.0526315789473681</v>
+        <v>12.8986</v>
       </c>
       <c r="O20" s="24">
-        <v>12.8986</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="P20" s="24">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="Q20" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="R20" s="24">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>81</v>
       </c>
@@ -2452,24 +2416,16 @@
         <v>1.8E-3</v>
       </c>
       <c r="N21" s="24">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.6392000000000002</v>
       </c>
       <c r="O21" s="24">
-        <v>2.6392000000000002</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="P21" s="24">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="Q21" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="R21" s="24">
-        <f t="shared" si="2"/>
-        <v>1.1428571428571428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
@@ -2505,24 +2461,16 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="N22" s="24">
-        <f t="shared" si="1"/>
-        <v>1.8888888888888888</v>
+        <v>3.0699000000000001</v>
       </c>
       <c r="O22" s="24">
-        <v>3.0699000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P22" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Q22" s="24">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="R22" s="24">
-        <f t="shared" si="2"/>
-        <v>1.5666666666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>82</v>
       </c>
@@ -2558,24 +2506,16 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="N23" s="24">
-        <f t="shared" si="1"/>
-        <v>2.6428571428571428</v>
+        <v>8.2581000000000007</v>
       </c>
       <c r="O23" s="24">
-        <v>8.2581000000000007</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="P23" s="24">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="Q23" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="R23" s="24">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>83</v>
       </c>
@@ -2611,21 +2551,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N24" s="24">
-        <f t="shared" si="1"/>
-        <v>2.5000000000000004</v>
+        <v>4.8853999999999997</v>
       </c>
       <c r="O24" s="24">
-        <v>4.8853999999999997</v>
+        <v>1.8E-3</v>
       </c>
       <c r="P24" s="24">
-        <v>1.8E-3</v>
-      </c>
-      <c r="Q24" s="24">
         <v>3.3E-3</v>
-      </c>
-      <c r="R24" s="24">
-        <f t="shared" si="2"/>
-        <v>1.8333333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -2633,12 +2565,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2646,180 +2578,171 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
-    <col min="2" max="4" width="6.77734375" style="25" customWidth="1"/>
-    <col min="5" max="6" width="6.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" customWidth="1"/>
-    <col min="8" max="9" width="14.21875" style="21" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" style="25" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" style="15" customWidth="1"/>
+    <col min="5" max="6" width="14.21875" style="21" customWidth="1"/>
+    <col min="7" max="8" width="14.6640625" style="15" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="40"/>
+      <c r="D1" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="52" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="F2" s="20" t="s">
         <v>100</v>
       </c>
+      <c r="G2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="15">
+        <v>110</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="15">
+        <v>20000</v>
+      </c>
+      <c r="H3" s="15">
         <v>5000</v>
       </c>
-      <c r="F3" s="15">
+      <c r="I3" s="15">
+        <v>20000</v>
+      </c>
+      <c r="J3" s="15">
         <v>5000</v>
       </c>
-      <c r="H3" s="15">
-        <v>50000</v>
-      </c>
-      <c r="I3" s="15">
-        <v>5000</v>
-      </c>
-      <c r="J3" s="15">
-        <v>50000</v>
-      </c>
-      <c r="K3" s="15">
-        <v>5000</v>
-      </c>
+      <c r="K3" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>101</v>
       </c>
+      <c r="E5" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="25">
-        <f>approx!N6</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="C6" s="25">
-        <f>approx!R6</f>
+        <f>approx!P6/approx!O6</f>
         <v>1.7586206896551726</v>
       </c>
-      <c r="D6" s="25">
-        <f>MAX(B6,C6)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="E6" s="15">
-        <f>$E$3*B6</f>
-        <v>12222.222222222223</v>
-      </c>
-      <c r="F6" s="15">
-        <f>$E$3*C6</f>
-        <v>8793.1034482758623</v>
-      </c>
-      <c r="G6" s="15">
-        <f>MAX(E6,F6)</f>
-        <v>12222.222222222223</v>
-      </c>
-      <c r="I6" s="21">
+      <c r="C6" s="15">
+        <f>MAX(0, approx!P6*approx!I6/approx!O6-approx!H6)</f>
+        <v>1877.8275862068976</v>
+      </c>
+      <c r="D6" s="15">
+        <f>approx!H6+C6</f>
+        <v>4350.8275862068976</v>
+      </c>
+      <c r="E6" s="21">
+        <f>approx!C6</f>
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="F6" s="21">
         <f>approx!D6</f>
         <v>0.29260000000000003</v>
       </c>
-      <c r="K6" s="15">
+      <c r="H6" s="15">
         <f>approx!I6</f>
         <v>2474</v>
       </c>
+      <c r="J6" s="25">
+        <f>H6*approx!P6</f>
+        <v>12.617400000000002</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="B7" s="25">
-        <f>approx!N7</f>
+        <f>approx!M7/approx!L7</f>
         <v>1.3846153846153846</v>
       </c>
-      <c r="C7" s="25">
-        <f>approx!R7</f>
-        <v>1</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" ref="D7:D24" si="0">MAX(B7,C7)</f>
-        <v>1.3846153846153846</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" ref="E7:E24" si="1">$E$3*B7</f>
-        <v>6923.0769230769229</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" ref="F7:F24" si="2">$E$3*C7</f>
-        <v>5000</v>
-      </c>
-      <c r="G7" s="15">
-        <f t="shared" ref="G7:G24" si="3">MAX(E7,F7)</f>
-        <v>6923.0769230769229</v>
-      </c>
-      <c r="I7" s="21">
+      <c r="C7" s="15">
+        <f>MAX(0, approx!M7*approx!I7/approx!L7-approx!H7)</f>
+        <v>5300.5384615384619</v>
+      </c>
+      <c r="D7" s="37">
+        <f>approx!H7+C7</f>
+        <v>6215.5384615384619</v>
+      </c>
+      <c r="E7" s="21">
+        <f>approx!C7</f>
+        <v>0.3125</v>
+      </c>
+      <c r="F7" s="21">
         <f>approx!D7</f>
         <v>0.18809999999999999</v>
       </c>
-      <c r="K7" s="15">
+      <c r="H7" s="15">
         <f>approx!I7</f>
         <v>4489</v>
+      </c>
+      <c r="J7" s="25">
+        <f>H7*approx!P7</f>
+        <v>10.773599999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2827,36 +2750,28 @@
         <v>25</v>
       </c>
       <c r="B8" s="25">
-        <f>approx!N8</f>
-        <v>1.8823529411764708</v>
-      </c>
-      <c r="C8" s="25">
-        <f>approx!R8</f>
+        <f>approx!P8/approx!O8</f>
         <v>1.5555555555555554</v>
       </c>
-      <c r="D8" s="25">
-        <f t="shared" si="0"/>
-        <v>1.8823529411764708</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="1"/>
-        <v>9411.7647058823532</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="2"/>
-        <v>7777.7777777777765</v>
-      </c>
-      <c r="G8" s="15">
-        <f t="shared" si="3"/>
-        <v>9411.7647058823532</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="C8" s="15">
+        <f>MAX(0, approx!P8*approx!I8/approx!O8-approx!H8)</f>
+        <v>2303.7777777777774</v>
+      </c>
+      <c r="D8" s="37">
+        <f>approx!H8+C8</f>
+        <v>6447.7777777777774</v>
+      </c>
+      <c r="F8" s="21">
         <f>approx!D8</f>
         <v>0.29899999999999999</v>
       </c>
-      <c r="K8" s="15">
+      <c r="H8" s="15">
         <f>approx!I8</f>
         <v>4145</v>
+      </c>
+      <c r="J8" s="25">
+        <f>H8*approx!P8</f>
+        <v>17.408999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2864,36 +2779,32 @@
         <v>82</v>
       </c>
       <c r="B9" s="25">
-        <f>approx!N9</f>
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="25">
-        <f>approx!R9</f>
+        <f>approx!P9/approx!O9</f>
         <v>1.4782608695652173</v>
       </c>
-      <c r="D9" s="25">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="1"/>
-        <v>12500</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="2"/>
-        <v>7391.3043478260861</v>
-      </c>
-      <c r="G9" s="15">
-        <f t="shared" si="3"/>
-        <v>12500</v>
-      </c>
-      <c r="I9" s="21">
+      <c r="C9" s="15">
+        <f>MAX(0, approx!P9*approx!I9/approx!O9-approx!H9)</f>
+        <v>143.99999999999977</v>
+      </c>
+      <c r="D9" s="15">
+        <f>approx!H9+C9</f>
+        <v>2005.9999999999998</v>
+      </c>
+      <c r="E9" s="21">
+        <f>approx!C9</f>
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="F9" s="21">
         <f>approx!D9</f>
         <v>0.27789999999999998</v>
       </c>
-      <c r="K9" s="15">
+      <c r="H9" s="15">
         <f>approx!I9</f>
         <v>1357</v>
+      </c>
+      <c r="J9" s="25">
+        <f>H9*approx!P9</f>
+        <v>4.6137999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2901,82 +2812,77 @@
         <v>83</v>
       </c>
       <c r="B10" s="25">
-        <f>approx!N10</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="C10" s="25">
-        <f>approx!R10</f>
+        <f>approx!P10/approx!O10</f>
         <v>1.3636363636363635</v>
       </c>
-      <c r="D10" s="25">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="1"/>
-        <v>11666.666666666668</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="2"/>
-        <v>6818.181818181818</v>
-      </c>
-      <c r="G10" s="15">
-        <f t="shared" si="3"/>
-        <v>11666.666666666668</v>
-      </c>
-      <c r="I10" s="21">
+      <c r="C10" s="15">
+        <f>MAX(0, approx!P10*approx!I10/approx!O10-approx!H10)</f>
+        <v>1403.545454545454</v>
+      </c>
+      <c r="D10" s="37">
+        <f>approx!H10+C10</f>
+        <v>5259.545454545454</v>
+      </c>
+      <c r="E10" s="21">
+        <f>approx!C10</f>
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="F10" s="21">
         <f>approx!D10</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="K10" s="15">
+      <c r="G10" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="15">
         <f>approx!I10</f>
         <v>3857</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G11" s="15"/>
+      <c r="J10" s="25">
+        <f>H10*approx!P10</f>
+        <v>11.571</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="E12" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B13" s="25">
-        <f>approx!N13</f>
-        <v>4.7878787878787881</v>
-      </c>
-      <c r="C13" s="25">
-        <f>approx!R13</f>
+        <f>approx!P13/approx!O13</f>
         <v>2.358490566037736</v>
       </c>
-      <c r="D13" s="25">
-        <f t="shared" si="0"/>
-        <v>4.7878787878787881</v>
-      </c>
-      <c r="E13" s="15">
-        <f t="shared" si="1"/>
-        <v>23939.39393939394</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="2"/>
-        <v>11792.45283018868</v>
-      </c>
-      <c r="G13" s="15">
-        <f t="shared" si="3"/>
-        <v>23939.39393939394</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="C13" s="15">
+        <f>MAX(0, approx!P13*approx!I13/approx!O13-approx!H13)</f>
+        <v>2538.6603773584911</v>
+      </c>
+      <c r="D13" s="15">
+        <f>approx!H13+C13</f>
+        <v>4405.6603773584911</v>
+      </c>
+      <c r="E13" s="21">
+        <f>approx!C13</f>
+        <v>-0.27350000000000002</v>
+      </c>
+      <c r="F13" s="21">
         <f>approx!D13</f>
         <v>-0.2727</v>
       </c>
-      <c r="K13" s="15">
+      <c r="H13" s="15">
         <f>approx!I13</f>
         <v>1868</v>
+      </c>
+      <c r="J13" s="25">
+        <f>H13*approx!P13</f>
+        <v>23.35</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2984,36 +2890,32 @@
         <v>81</v>
       </c>
       <c r="B14" s="25">
-        <f>approx!N14</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="C14" s="25">
-        <f>approx!R14</f>
+        <f>approx!P14/approx!O14</f>
         <v>1.8135593220338984</v>
       </c>
-      <c r="D14" s="25">
-        <f t="shared" si="0"/>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="E14" s="15">
-        <f t="shared" si="1"/>
-        <v>18000</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="2"/>
-        <v>9067.796610169491</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="3"/>
-        <v>18000</v>
-      </c>
-      <c r="I14" s="21">
+      <c r="C14" s="15">
+        <f>MAX(0, approx!P14*approx!I14/approx!O14-approx!H14)</f>
+        <v>1209.9491525423728</v>
+      </c>
+      <c r="D14" s="15">
+        <f>approx!H14+C14</f>
+        <v>2694.9491525423728</v>
+      </c>
+      <c r="E14" s="21">
+        <f>approx!C14</f>
+        <v>-1.0865</v>
+      </c>
+      <c r="F14" s="21">
         <f>approx!D14</f>
         <v>-1.0665</v>
       </c>
-      <c r="K14" s="15">
+      <c r="H14" s="15">
         <f>approx!I14</f>
         <v>1486</v>
+      </c>
+      <c r="J14" s="25">
+        <f>H14*approx!P14</f>
+        <v>15.9002</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3021,36 +2923,32 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <f>approx!N15</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="C15" s="25">
-        <f>approx!R15</f>
+        <f>approx!P15/approx!O15</f>
         <v>1.4666666666666666</v>
       </c>
-      <c r="D15" s="25">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" si="1"/>
-        <v>11666.666666666668</v>
-      </c>
-      <c r="F15" s="15">
-        <f t="shared" si="2"/>
-        <v>7333.333333333333</v>
-      </c>
-      <c r="G15" s="15">
-        <f t="shared" si="3"/>
-        <v>11666.666666666668</v>
-      </c>
-      <c r="I15" s="21">
+      <c r="C15" s="15">
+        <f>MAX(0, approx!P15*approx!I15/approx!O15-approx!H15)</f>
+        <v>117.19999999999999</v>
+      </c>
+      <c r="D15" s="15">
+        <f>approx!H15+C15</f>
+        <v>365.2</v>
+      </c>
+      <c r="E15" s="21">
+        <f>approx!C15</f>
+        <v>-0.27150000000000002</v>
+      </c>
+      <c r="F15" s="21">
         <f>approx!D15</f>
         <v>-0.2712</v>
       </c>
-      <c r="K15" s="15">
+      <c r="H15" s="15">
         <f>approx!I15</f>
         <v>249</v>
+      </c>
+      <c r="J15" s="25">
+        <f>H15*approx!P15</f>
+        <v>2.7389999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3058,36 +2956,32 @@
         <v>82</v>
       </c>
       <c r="B16" s="25">
-        <f>approx!N16</f>
-        <v>5.04</v>
-      </c>
-      <c r="C16" s="25">
-        <f>approx!R16</f>
+        <f>approx!P16/approx!O16</f>
         <v>1.9811320754716981</v>
       </c>
-      <c r="D16" s="25">
-        <f t="shared" si="0"/>
-        <v>5.04</v>
-      </c>
-      <c r="E16" s="15">
-        <f t="shared" si="1"/>
-        <v>25200</v>
-      </c>
-      <c r="F16" s="15">
-        <f t="shared" si="2"/>
-        <v>9905.6603773584902</v>
-      </c>
-      <c r="G16" s="15">
-        <f t="shared" si="3"/>
-        <v>25200</v>
-      </c>
-      <c r="I16" s="21">
+      <c r="C16" s="15">
+        <f>MAX(0, approx!P16*approx!I16/approx!O16-approx!H16)</f>
+        <v>900.69811320754729</v>
+      </c>
+      <c r="D16" s="15">
+        <f>approx!H16+C16</f>
+        <v>1816.6981132075473</v>
+      </c>
+      <c r="E16" s="21">
+        <f>approx!C16</f>
+        <v>-0.27650000000000002</v>
+      </c>
+      <c r="F16" s="21">
         <f>approx!D16</f>
         <v>-0.27460000000000001</v>
       </c>
-      <c r="K16" s="15">
+      <c r="H16" s="15">
         <f>approx!I16</f>
         <v>917</v>
+      </c>
+      <c r="J16" s="25">
+        <f>H16*approx!P16</f>
+        <v>9.6285000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3095,82 +2989,84 @@
         <v>83</v>
       </c>
       <c r="B17" s="25">
-        <f>approx!N17</f>
-        <v>4</v>
-      </c>
-      <c r="C17" s="25">
-        <f>approx!R17</f>
+        <f>approx!P17/approx!O17</f>
         <v>2.0526315789473681</v>
       </c>
-      <c r="D17" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E17" s="15">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="F17" s="15">
-        <f t="shared" si="2"/>
-        <v>10263.15789473684</v>
-      </c>
-      <c r="G17" s="15">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="I17" s="21">
+      <c r="C17" s="15">
+        <f>MAX(0, approx!P17*approx!I17/approx!O17-approx!H17)</f>
+        <v>3643.105263157895</v>
+      </c>
+      <c r="D17" s="37">
+        <f>approx!H17+C17</f>
+        <v>7102.105263157895</v>
+      </c>
+      <c r="E17" s="21">
+        <f>approx!C17</f>
+        <v>-0.2757</v>
+      </c>
+      <c r="F17" s="21">
         <f>approx!D17</f>
         <v>-0.27379999999999999</v>
       </c>
-      <c r="K17" s="15">
+      <c r="G17" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="15">
         <f>approx!I17</f>
         <v>3460</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G18" s="15"/>
+      <c r="I17" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="25">
+        <f>H17*approx!P17</f>
+        <v>26.988</v>
+      </c>
+      <c r="K17" s="54">
+        <f>J17/76</f>
+        <v>0.35510526315789476</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="E19" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="25">
-        <f>approx!N20</f>
-        <v>3.0526315789473681</v>
-      </c>
-      <c r="C20" s="25">
-        <f>approx!R20</f>
+        <f>approx!P20/approx!O20</f>
         <v>2</v>
       </c>
-      <c r="D20" s="25">
-        <f t="shared" si="0"/>
-        <v>3.0526315789473681</v>
-      </c>
-      <c r="E20" s="15">
-        <f t="shared" si="1"/>
-        <v>15263.15789473684</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="2"/>
-        <v>10000</v>
-      </c>
-      <c r="G20" s="15">
-        <f t="shared" si="3"/>
-        <v>15263.15789473684</v>
-      </c>
-      <c r="I20" s="21">
+      <c r="C20" s="15">
+        <f>MAX(0, approx!P20*approx!I20/approx!O20-approx!H20)</f>
+        <v>2489</v>
+      </c>
+      <c r="D20" s="15">
+        <f>approx!H20+C20</f>
+        <v>4976</v>
+      </c>
+      <c r="E20" s="21">
+        <f>approx!C20</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="F20" s="21">
         <f>approx!D20</f>
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="K20" s="15">
+      <c r="H20" s="15">
         <f>approx!I20</f>
         <v>2488</v>
+      </c>
+      <c r="J20" s="25">
+        <f>H20*approx!P20</f>
+        <v>17.416</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3178,36 +3074,42 @@
         <v>81</v>
       </c>
       <c r="B21" s="25">
-        <f>approx!N21</f>
-        <v>1.5</v>
-      </c>
-      <c r="C21" s="25">
-        <f>approx!R21</f>
+        <f>approx!P21/approx!O21</f>
         <v>1.1428571428571428</v>
       </c>
-      <c r="D21" s="25">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="15">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="F21" s="15">
-        <f t="shared" si="2"/>
-        <v>5714.2857142857138</v>
-      </c>
-      <c r="G21" s="15">
-        <f t="shared" si="3"/>
-        <v>7500</v>
-      </c>
-      <c r="I21" s="21">
+      <c r="C21" s="15">
+        <f>MAX(0, approx!P21*approx!I21/approx!O21-approx!H21)</f>
+        <v>687.57142857142844</v>
+      </c>
+      <c r="D21" s="37">
+        <f>approx!H21+C21</f>
+        <v>5492.5714285714284</v>
+      </c>
+      <c r="E21" s="21">
+        <f>approx!C21</f>
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="F21" s="21">
         <f>approx!D21</f>
         <v>-1.41E-2</v>
       </c>
-      <c r="K21" s="15">
+      <c r="G21" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="15">
         <f>approx!I21</f>
         <v>4806</v>
+      </c>
+      <c r="I21" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="25">
+        <f>H21*approx!P21</f>
+        <v>11.5344</v>
+      </c>
+      <c r="K21" s="54">
+        <f>J21/42</f>
+        <v>0.27462857142857144</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3215,36 +3117,32 @@
         <v>25</v>
       </c>
       <c r="B22" s="25">
-        <f>approx!N22</f>
-        <v>1.8888888888888888</v>
-      </c>
-      <c r="C22" s="25">
-        <f>approx!R22</f>
+        <f>approx!P22/approx!O22</f>
         <v>1.5666666666666667</v>
       </c>
-      <c r="D22" s="25">
-        <f t="shared" si="0"/>
-        <v>1.8888888888888888</v>
-      </c>
-      <c r="E22" s="15">
-        <f t="shared" si="1"/>
-        <v>9444.4444444444434</v>
-      </c>
-      <c r="F22" s="15">
-        <f t="shared" si="2"/>
-        <v>7833.333333333333</v>
-      </c>
-      <c r="G22" s="15">
-        <f t="shared" si="3"/>
-        <v>9444.4444444444434</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="C22" s="15">
+        <f>MAX(0, approx!P22*approx!I22/approx!O22-approx!H22)</f>
+        <v>645.86666666666679</v>
+      </c>
+      <c r="D22" s="15">
+        <f>approx!H22+C22</f>
+        <v>1782.8666666666668</v>
+      </c>
+      <c r="E22" s="21">
+        <f>approx!C22</f>
+        <v>-3.8999999999999998E-3</v>
+      </c>
+      <c r="F22" s="21">
         <f>approx!D22</f>
         <v>-7.7000000000000002E-3</v>
       </c>
-      <c r="K22" s="15">
+      <c r="H22" s="15">
         <f>approx!I22</f>
         <v>1138</v>
+      </c>
+      <c r="J22" s="25">
+        <f>H22*approx!P22</f>
+        <v>5.3486000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3252,36 +3150,32 @@
         <v>82</v>
       </c>
       <c r="B23" s="25">
-        <f>approx!N23</f>
-        <v>2.6428571428571428</v>
-      </c>
-      <c r="C23" s="25">
-        <f>approx!R23</f>
+        <f>approx!P23/approx!O23</f>
         <v>1.75</v>
       </c>
-      <c r="D23" s="25">
-        <f t="shared" si="0"/>
-        <v>2.6428571428571428</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="1"/>
-        <v>13214.285714285714</v>
-      </c>
-      <c r="F23" s="15">
-        <f t="shared" si="2"/>
-        <v>8750</v>
-      </c>
-      <c r="G23" s="15">
-        <f t="shared" si="3"/>
-        <v>13214.285714285714</v>
-      </c>
-      <c r="I23" s="21">
+      <c r="C23" s="15">
+        <f>MAX(0, approx!P23*approx!I23/approx!O23-approx!H23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <f>approx!H23+C23</f>
+        <v>4838</v>
+      </c>
+      <c r="E23" s="21">
+        <f>approx!C23</f>
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="F23" s="21">
         <f>approx!D23</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="K23" s="15">
+      <c r="H23" s="15">
         <f>approx!I23</f>
         <v>470</v>
+      </c>
+      <c r="J23" s="25">
+        <f>H23*approx!P23</f>
+        <v>1.974</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3289,36 +3183,42 @@
         <v>83</v>
       </c>
       <c r="B24" s="25">
-        <f>approx!N24</f>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="C24" s="25">
-        <f>approx!R24</f>
+        <f>approx!P24/approx!O24</f>
         <v>1.8333333333333335</v>
       </c>
-      <c r="D24" s="25">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000004</v>
-      </c>
-      <c r="E24" s="15">
-        <f t="shared" si="1"/>
-        <v>12500.000000000002</v>
-      </c>
-      <c r="F24" s="15">
-        <f t="shared" si="2"/>
-        <v>9166.6666666666679</v>
-      </c>
-      <c r="G24" s="15">
-        <f t="shared" si="3"/>
-        <v>12500.000000000002</v>
-      </c>
-      <c r="I24" s="21">
+      <c r="C24" s="15">
+        <f>MAX(0, approx!P24*approx!I24/approx!O24-approx!H24)</f>
+        <v>3979.3333333333339</v>
+      </c>
+      <c r="D24" s="37">
+        <f>approx!H24+C24</f>
+        <v>8752.3333333333339</v>
+      </c>
+      <c r="E24" s="21">
+        <f>approx!C24</f>
+        <v>-6.4000000000000003E-3</v>
+      </c>
+      <c r="F24" s="21">
         <f>approx!D24</f>
         <v>-0.03</v>
       </c>
-      <c r="K24" s="15">
+      <c r="G24" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="15">
         <f>approx!I24</f>
         <v>4774</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="25">
+        <f>H24*approx!P24</f>
+        <v>15.754199999999999</v>
+      </c>
+      <c r="K24" s="54">
+        <f>J24/36</f>
+        <v>0.43761666666666665</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3326,34 +3226,46 @@
         <v>122</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:D1"/>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
     <col min="2" max="5" width="6.21875" style="15" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" customWidth="1"/>
     <col min="7" max="9" width="10.109375" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -3363,21 +3275,24 @@
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>100</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -3387,10 +3302,10 @@
         <v>88</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
@@ -3400,10 +3315,10 @@
       <c r="C3" s="15">
         <v>494</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="37">
         <v>2391</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="37">
         <v>506</v>
       </c>
       <c r="G3" s="6">
@@ -3415,8 +3330,11 @@
       <c r="I3" s="15">
         <v>23590</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -3441,8 +3359,11 @@
       <c r="I4" s="15">
         <v>20411</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>25</v>
       </c>
@@ -3452,10 +3373,10 @@
       <c r="C5" s="15">
         <v>490</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="37">
         <v>5502</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="37">
         <v>497</v>
       </c>
       <c r="G5" s="15">
@@ -3467,8 +3388,11 @@
       <c r="I5" s="15">
         <v>5802</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>82</v>
       </c>
@@ -3493,8 +3417,11 @@
       <c r="I6" s="15">
         <v>30418</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>83</v>
       </c>
@@ -3519,86 +3446,146 @@
       <c r="I7" s="15">
         <v>16974</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="15">
+        <v>708</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4431</v>
+      </c>
+      <c r="E9" s="15">
+        <v>709</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4718</v>
+      </c>
+      <c r="H9" s="6">
+        <v>49288</v>
+      </c>
+      <c r="I9" s="6">
+        <v>322445</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1130</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1141</v>
       </c>
       <c r="G10" s="6">
-        <v>4718</v>
+        <v>12471</v>
       </c>
       <c r="H10" s="6">
-        <v>49288</v>
+        <v>872622</v>
       </c>
       <c r="I10" s="6">
-        <v>322445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22624727</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="C11" s="15">
-        <v>928</v>
+        <v>865</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="15">
+        <v>880</v>
       </c>
       <c r="G11" s="6">
-        <v>12471</v>
+        <v>428440</v>
       </c>
       <c r="H11" s="6">
-        <v>872622</v>
+        <v>896308</v>
       </c>
       <c r="I11" s="6">
-        <v>22624727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3782463</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2857</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2944</v>
       </c>
       <c r="G12" s="6">
-        <v>428440</v>
+        <v>5363260</v>
       </c>
       <c r="H12" s="6">
-        <v>896308</v>
+        <v>5363260</v>
       </c>
       <c r="I12" s="6">
-        <v>3782463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>79023142</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="15">
-        <v>2660</v>
+        <v>2012</v>
+      </c>
+      <c r="D13" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2069</v>
       </c>
       <c r="G13" s="6">
-        <v>5363260</v>
+        <v>3566907</v>
       </c>
       <c r="H13" s="6">
-        <v>5363260</v>
-      </c>
-      <c r="I13" s="6">
-        <v>79023142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="6">
         <v>3566907</v>
       </c>
-      <c r="H14" s="6">
-        <v>3566907</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="I13" s="5">
         <v>45030389</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="parallel" sheetId="3" r:id="rId3"/>
     <sheet name="approx" sheetId="2" r:id="rId4"/>
     <sheet name="followUp" sheetId="6" r:id="rId5"/>
-    <sheet name="memory" sheetId="4" r:id="rId6"/>
+    <sheet name="full" sheetId="7" r:id="rId6"/>
+    <sheet name="memory" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
   <si>
     <t>Dataset</t>
   </si>
@@ -321,9 +322,6 @@
     <t># of itrns @ convergence</t>
   </si>
   <si>
-    <t>SAG-A</t>
-  </si>
-  <si>
     <t>Sparse L2</t>
   </si>
   <si>
@@ -336,12 +334,6 @@
     <t>FG</t>
   </si>
   <si>
-    <t>SAG</t>
-  </si>
-  <si>
-    <t>SAG minus SG</t>
-  </si>
-  <si>
     <t>99.9%tile (sec) per itrn</t>
   </si>
   <si>
@@ -354,9 +346,6 @@
     <t>max itrns</t>
   </si>
   <si>
-    <t>DG</t>
-  </si>
-  <si>
     <t>non-zero's</t>
   </si>
   <si>
@@ -378,9 +367,6 @@
     <t>RAM (GB)</t>
   </si>
   <si>
-    <t>&gt; 5,000</t>
-  </si>
-  <si>
     <t>Digg*</t>
   </si>
   <si>
@@ -405,8 +391,11 @@
     <t>&gt; 36.00</t>
   </si>
   <si>
+    <t>SAG-MF</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">SAG time
+      <t xml:space="preserve">SAG-MF time
 </t>
     </r>
     <r>
@@ -419,6 +408,66 @@
       </rPr>
       <t>SG time</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAG-MF time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SG time</t>
+    </r>
+  </si>
+  <si>
+    <t>&gt; 58.00</t>
+  </si>
+  <si>
+    <t>&gt; 44.00</t>
+  </si>
+  <si>
+    <t>&gt; 46.00</t>
+  </si>
+  <si>
+    <t>&gt; 106.00</t>
+  </si>
+  <si>
+    <t>&gt; 118.00</t>
+  </si>
+  <si>
+    <t>&gt; 150.00</t>
+  </si>
+  <si>
+    <t>&gt; 48.00</t>
+  </si>
+  <si>
+    <t>&gt; 60.00</t>
+  </si>
+  <si>
+    <t>&gt; 70.00</t>
+  </si>
+  <si>
+    <t>re-com.</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>SAG minus SG</t>
   </si>
 </sst>
 </file>
@@ -471,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,6 +624,30 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,25 +669,10 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -617,7 +681,9 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1228,7 +1294,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1241,23 +1307,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="50"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="39" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1357,7 +1423,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1651,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,123 +1727,128 @@
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
     <col min="6" max="6" width="2.88671875" style="28" customWidth="1"/>
-    <col min="7" max="9" width="7.5546875" style="32" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" style="32" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="32" customWidth="1"/>
     <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
     <col min="12" max="13" width="6.21875" style="24" customWidth="1"/>
     <col min="14" max="14" width="8.44140625" style="24" customWidth="1"/>
-    <col min="15" max="16" width="6.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="24" customWidth="1"/>
     <col min="17" max="17" width="2.109375" style="24" customWidth="1"/>
-    <col min="18" max="23" width="7" style="11" customWidth="1"/>
+    <col min="18" max="19" width="7" style="11" customWidth="1"/>
+    <col min="20" max="20" width="8" style="11" customWidth="1"/>
+    <col min="21" max="22" width="7" style="11" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>100</v>
+      <c r="I2" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>100</v>
+      <c r="M2" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="26" t="s">
-        <v>100</v>
+      <c r="P2" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="16" t="s">
-        <v>100</v>
+      <c r="T2" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="16" t="s">
-        <v>100</v>
+      <c r="W2" s="43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -1810,13 +1881,13 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
@@ -2094,11 +2165,11 @@
       <c r="A12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2108,14 +2179,14 @@
         <v>-0.27529999999999999</v>
       </c>
       <c r="C13" s="28">
-        <v>-0.27350000000000002</v>
+        <v>-0.27353</v>
       </c>
       <c r="D13" s="28">
         <v>-0.2727</v>
       </c>
       <c r="E13" s="28">
         <f t="shared" si="0"/>
-        <v>8.0000000000002292E-4</v>
+        <v>8.2999999999999741E-4</v>
       </c>
       <c r="G13" s="32">
         <v>500</v>
@@ -2329,11 +2400,11 @@
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
+      <c r="B19" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2580,82 +2651,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="25" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12" style="25" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="15" customWidth="1"/>
     <col min="5" max="6" width="14.21875" style="21" customWidth="1"/>
     <col min="7" max="8" width="14.6640625" style="15" customWidth="1"/>
-    <col min="9" max="10" width="14.6640625" style="25" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="54"/>
+    <col min="9" max="10" width="14.6640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="B1" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="48"/>
-      <c r="K1" s="52" t="s">
-        <v>128</v>
+      <c r="D1" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="52"/>
+      <c r="I1" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="61"/>
+      <c r="K1" s="59" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K2" s="53"/>
+      <c r="J2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>119</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D3" s="38"/>
       <c r="G3" s="15">
         <v>20000</v>
       </c>
@@ -2668,16 +2738,16 @@
       <c r="J3" s="15">
         <v>5000</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="39"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -2688,12 +2758,12 @@
         <v>1.7586206896551726</v>
       </c>
       <c r="C6" s="15">
-        <f>MAX(0, approx!P6*approx!I6/approx!O6-approx!H6)</f>
-        <v>1877.8275862068976</v>
-      </c>
-      <c r="D6" s="15">
+        <f>MAX(0, (approx!P6*(approx!I6-1)+approx!N6)/approx!O6-approx!H6)</f>
+        <v>4597.0344827586214</v>
+      </c>
+      <c r="D6" s="45">
         <f>approx!H6+C6</f>
-        <v>4350.8275862068976</v>
+        <v>7070.0344827586214</v>
       </c>
       <c r="E6" s="21">
         <f>approx!C6</f>
@@ -2703,32 +2773,42 @@
         <f>approx!D6</f>
         <v>0.29260000000000003</v>
       </c>
+      <c r="G6" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H6" s="15">
         <f>approx!I6</f>
         <v>2474</v>
       </c>
+      <c r="I6" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="J6" s="25">
         <f>H6*approx!P6</f>
         <v>12.617400000000002</v>
       </c>
+      <c r="K6" s="41">
+        <f>J6/58</f>
+        <v>0.21754137931034487</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B7" s="25">
         <f>approx!M7/approx!L7</f>
         <v>1.3846153846153846</v>
       </c>
       <c r="C7" s="15">
-        <f>MAX(0, approx!M7*approx!I7/approx!L7-approx!H7)</f>
-        <v>5300.5384615384619</v>
-      </c>
-      <c r="D7" s="37">
+        <f>MAX(0, (approx!P7*(approx!I7-1)+approx!N7)/approx!O7-approx!H7)</f>
+        <v>4444.666666666667</v>
+      </c>
+      <c r="D7" s="45">
         <f>approx!H7+C7</f>
-        <v>6215.5384615384619</v>
-      </c>
-      <c r="E7" s="21">
+        <v>5359.666666666667</v>
+      </c>
+      <c r="E7" s="47">
         <f>approx!C7</f>
         <v>0.3125</v>
       </c>
@@ -2736,14 +2816,25 @@
         <f>approx!D7</f>
         <v>0.18809999999999999</v>
       </c>
+      <c r="G7" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H7" s="15">
         <f>approx!I7</f>
         <v>4489</v>
       </c>
+      <c r="I7" s="25">
+        <f>approx!O7*20000</f>
+        <v>47.999999999999993</v>
+      </c>
       <c r="J7" s="25">
         <f>H7*approx!P7</f>
         <v>10.773599999999998</v>
       </c>
+      <c r="K7" s="41">
+        <f>J7/48</f>
+        <v>0.22444999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
@@ -2754,25 +2845,39 @@
         <v>1.5555555555555554</v>
       </c>
       <c r="C8" s="15">
-        <f>MAX(0, approx!P8*approx!I8/approx!O8-approx!H8)</f>
-        <v>2303.7777777777774</v>
-      </c>
-      <c r="D8" s="37">
+        <f>MAX(0, (approx!P8*(approx!I8-1)+approx!N8)/approx!O8-approx!H8)</f>
+        <v>3154.7777777777765</v>
+      </c>
+      <c r="D8" s="45">
         <f>approx!H8+C8</f>
-        <v>6447.7777777777774</v>
+        <v>7298.7777777777765</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.29777999999999999</v>
       </c>
       <c r="F8" s="21">
         <f>approx!D8</f>
         <v>0.29899999999999999</v>
       </c>
+      <c r="G8" s="37">
+        <v>5153</v>
+      </c>
       <c r="H8" s="15">
         <f>approx!I8</f>
         <v>4145</v>
       </c>
+      <c r="I8" s="25">
+        <f>approx!O8*G8</f>
+        <v>13.9131</v>
+      </c>
       <c r="J8" s="25">
         <f>H8*approx!P8</f>
         <v>17.408999999999999</v>
       </c>
+      <c r="K8" s="48">
+        <f>J8/I8</f>
+        <v>1.2512667917286586</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
@@ -2783,12 +2888,12 @@
         <v>1.4782608695652173</v>
       </c>
       <c r="C9" s="15">
-        <f>MAX(0, approx!P9*approx!I9/approx!O9-approx!H9)</f>
-        <v>143.99999999999977</v>
-      </c>
-      <c r="D9" s="15">
+        <f>MAX(0, (approx!P9*(approx!I9-1)+approx!N9)/approx!O9-approx!H9)</f>
+        <v>3196.478260869565</v>
+      </c>
+      <c r="D9" s="45">
         <f>approx!H9+C9</f>
-        <v>2005.9999999999998</v>
+        <v>5058.478260869565</v>
       </c>
       <c r="E9" s="21">
         <f>approx!C9</f>
@@ -2798,14 +2903,24 @@
         <f>approx!D9</f>
         <v>0.27789999999999998</v>
       </c>
+      <c r="G9" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H9" s="15">
         <f>approx!I9</f>
         <v>1357</v>
       </c>
+      <c r="I9" s="40" t="s">
+        <v>128</v>
+      </c>
       <c r="J9" s="25">
         <f>H9*approx!P9</f>
         <v>4.6137999999999995</v>
       </c>
+      <c r="K9" s="41">
+        <f>J9/46</f>
+        <v>0.10029999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
@@ -2816,14 +2931,14 @@
         <v>1.3636363636363635</v>
       </c>
       <c r="C10" s="15">
-        <f>MAX(0, approx!P10*approx!I10/approx!O10-approx!H10)</f>
-        <v>1403.545454545454</v>
-      </c>
-      <c r="D10" s="37">
+        <f>MAX(0, (approx!P10*(approx!I10-1)+approx!N10)/approx!O10-approx!H10)</f>
+        <v>3349.6818181818171</v>
+      </c>
+      <c r="D10" s="45">
         <f>approx!H10+C10</f>
-        <v>5259.545454545454</v>
-      </c>
-      <c r="E10" s="21">
+        <v>7205.6818181818171</v>
+      </c>
+      <c r="E10" s="47">
         <f>approx!C10</f>
         <v>0.30059999999999998</v>
       </c>
@@ -2831,26 +2946,37 @@
         <f>approx!D10</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="G10" s="47" t="s">
-        <v>124</v>
+      <c r="G10" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="H10" s="15">
         <f>approx!I10</f>
         <v>3857</v>
       </c>
+      <c r="I10" s="40" t="s">
+        <v>127</v>
+      </c>
       <c r="J10" s="25">
         <f>H10*approx!P10</f>
         <v>11.571</v>
       </c>
+      <c r="K10" s="41">
+        <f>J10/44</f>
+        <v>0.26297727272727273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" s="45"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="39"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2861,29 +2987,39 @@
         <v>2.358490566037736</v>
       </c>
       <c r="C13" s="15">
-        <f>MAX(0, approx!P13*approx!I13/approx!O13-approx!H13)</f>
-        <v>2538.6603773584911</v>
-      </c>
-      <c r="D13" s="15">
+        <f>MAX(0, (approx!P13*(approx!I13-1)+approx!N13)/approx!O13-approx!H13)</f>
+        <v>10270.396226415094</v>
+      </c>
+      <c r="D13" s="45">
         <f>approx!H13+C13</f>
-        <v>4405.6603773584911</v>
+        <v>12137.396226415094</v>
       </c>
       <c r="E13" s="21">
         <f>approx!C13</f>
-        <v>-0.27350000000000002</v>
+        <v>-0.27353</v>
       </c>
       <c r="F13" s="21">
         <f>approx!D13</f>
         <v>-0.2727</v>
       </c>
+      <c r="G13" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H13" s="15">
         <f>approx!I13</f>
         <v>1868</v>
       </c>
+      <c r="I13" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="J13" s="25">
         <f>H13*approx!P13</f>
         <v>23.35</v>
       </c>
+      <c r="K13" s="41">
+        <f>J13/106</f>
+        <v>0.22028301886792453</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -2894,12 +3030,12 @@
         <v>1.8135593220338984</v>
       </c>
       <c r="C14" s="15">
-        <f>MAX(0, approx!P14*approx!I14/approx!O14-approx!H14)</f>
-        <v>1209.9491525423728</v>
-      </c>
-      <c r="D14" s="15">
+        <f>MAX(0, (approx!P14*(approx!I14-1)+approx!N14)/approx!O14-approx!H14)</f>
+        <v>5221.0677966101703</v>
+      </c>
+      <c r="D14" s="45">
         <f>approx!H14+C14</f>
-        <v>2694.9491525423728</v>
+        <v>6706.0677966101703</v>
       </c>
       <c r="E14" s="21">
         <f>approx!C14</f>
@@ -2909,14 +3045,24 @@
         <f>approx!D14</f>
         <v>-1.0665</v>
       </c>
+      <c r="G14" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H14" s="15">
         <f>approx!I14</f>
         <v>1486</v>
       </c>
+      <c r="I14" s="40" t="s">
+        <v>130</v>
+      </c>
       <c r="J14" s="25">
         <f>H14*approx!P14</f>
         <v>15.9002</v>
       </c>
+      <c r="K14" s="41">
+        <f>J14/118</f>
+        <v>0.13474745762711865</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -2927,12 +3073,12 @@
         <v>1.4666666666666666</v>
       </c>
       <c r="C15" s="15">
-        <f>MAX(0, approx!P15*approx!I15/approx!O15-approx!H15)</f>
-        <v>117.19999999999999</v>
-      </c>
-      <c r="D15" s="15">
+        <f>MAX(0, (approx!P15*(approx!I15-1)+approx!N15)/approx!O15-approx!H15)</f>
+        <v>1255.4666666666667</v>
+      </c>
+      <c r="D15" s="49">
         <f>approx!H15+C15</f>
-        <v>365.2</v>
+        <v>1503.4666666666667</v>
       </c>
       <c r="E15" s="21">
         <f>approx!C15</f>
@@ -2942,14 +3088,24 @@
         <f>approx!D15</f>
         <v>-0.2712</v>
       </c>
+      <c r="G15" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H15" s="15">
         <f>approx!I15</f>
         <v>249</v>
       </c>
+      <c r="I15" s="40" t="s">
+        <v>131</v>
+      </c>
       <c r="J15" s="25">
         <f>H15*approx!P15</f>
         <v>2.7389999999999999</v>
       </c>
+      <c r="K15" s="41">
+        <f>J15/150</f>
+        <v>1.8259999999999998E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
@@ -2960,12 +3116,12 @@
         <v>1.9811320754716981</v>
       </c>
       <c r="C16" s="15">
-        <f>MAX(0, approx!P16*approx!I16/approx!O16-approx!H16)</f>
-        <v>900.69811320754729</v>
-      </c>
-      <c r="D16" s="15">
+        <f>MAX(0, (approx!P16*(approx!I16-1)+approx!N16)/approx!O16-approx!H16)</f>
+        <v>7890.4905660377353</v>
+      </c>
+      <c r="D16" s="45">
         <f>approx!H16+C16</f>
-        <v>1816.6981132075473</v>
+        <v>8806.4905660377353</v>
       </c>
       <c r="E16" s="21">
         <f>approx!C16</f>
@@ -2975,14 +3131,24 @@
         <f>approx!D16</f>
         <v>-0.27460000000000001</v>
       </c>
+      <c r="G16" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H16" s="15">
         <f>approx!I16</f>
         <v>917</v>
       </c>
+      <c r="I16" s="40" t="s">
+        <v>129</v>
+      </c>
       <c r="J16" s="25">
         <f>H16*approx!P16</f>
         <v>9.6285000000000007</v>
       </c>
+      <c r="K16" s="41">
+        <f>J16/106</f>
+        <v>9.0834905660377371E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
@@ -2993,48 +3159,52 @@
         <v>2.0526315789473681</v>
       </c>
       <c r="C17" s="15">
-        <f>MAX(0, approx!P17*approx!I17/approx!O17-approx!H17)</f>
-        <v>3643.105263157895</v>
-      </c>
-      <c r="D17" s="37">
+        <f>MAX(0, (approx!P17*(approx!I17-1)+approx!N17)/approx!O17-approx!H17)</f>
+        <v>9371.2368421052633</v>
+      </c>
+      <c r="D17" s="45">
         <f>approx!H17+C17</f>
-        <v>7102.105263157895</v>
+        <v>12830.236842105263</v>
       </c>
       <c r="E17" s="21">
-        <f>approx!C17</f>
-        <v>-0.2757</v>
+        <f>-0.275624157113277</f>
+        <v>-0.27562415711327698</v>
       </c>
       <c r="F17" s="21">
         <f>approx!D17</f>
         <v>-0.27379999999999999</v>
       </c>
-      <c r="G17" s="47" t="s">
-        <v>124</v>
+      <c r="G17" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="H17" s="15">
         <f>approx!I17</f>
         <v>3460</v>
       </c>
-      <c r="I17" s="50" t="s">
-        <v>125</v>
+      <c r="I17" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="J17" s="25">
         <f>H17*approx!P17</f>
         <v>26.988</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="41">
         <f>J17/76</f>
         <v>0.35510526315789476</v>
       </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="39"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="51"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -3045,12 +3215,12 @@
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <f>MAX(0, approx!P20*approx!I20/approx!O20-approx!H20)</f>
-        <v>2489</v>
-      </c>
-      <c r="D20" s="15">
+        <f>MAX(0, (approx!P20*(approx!I20-1)+approx!N20)/approx!O20-approx!H20)</f>
+        <v>6172.3142857142866</v>
+      </c>
+      <c r="D20" s="45">
         <f>approx!H20+C20</f>
-        <v>4976</v>
+        <v>8659.3142857142866</v>
       </c>
       <c r="E20" s="21">
         <f>approx!C20</f>
@@ -3060,14 +3230,24 @@
         <f>approx!D20</f>
         <v>-7.0000000000000001E-3</v>
       </c>
+      <c r="G20" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H20" s="15">
         <f>approx!I20</f>
         <v>2488</v>
       </c>
+      <c r="I20" s="40" t="s">
+        <v>134</v>
+      </c>
       <c r="J20" s="25">
         <f>H20*approx!P20</f>
         <v>17.416</v>
       </c>
+      <c r="K20" s="41">
+        <f>J20/70</f>
+        <v>0.24879999999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
@@ -3078,12 +3258,12 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="C21" s="15">
-        <f>MAX(0, approx!P21*approx!I21/approx!O21-approx!H21)</f>
-        <v>687.57142857142844</v>
-      </c>
-      <c r="D21" s="37">
+        <f>MAX(0, (approx!P21*(approx!I21-1)+approx!N21)/approx!O21-approx!H21)</f>
+        <v>1943.1904761904761</v>
+      </c>
+      <c r="D21" s="45">
         <f>approx!H21+C21</f>
-        <v>5492.5714285714284</v>
+        <v>6748.1904761904761</v>
       </c>
       <c r="E21" s="21">
         <f>approx!C21</f>
@@ -3093,21 +3273,21 @@
         <f>approx!D21</f>
         <v>-1.41E-2</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>124</v>
+      <c r="G21" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="H21" s="15">
         <f>approx!I21</f>
         <v>4806</v>
       </c>
-      <c r="I21" s="50" t="s">
-        <v>126</v>
+      <c r="I21" s="40" t="s">
+        <v>121</v>
       </c>
       <c r="J21" s="25">
         <f>H21*approx!P21</f>
         <v>11.5344</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="41">
         <f>J21/42</f>
         <v>0.27462857142857144</v>
       </c>
@@ -3121,12 +3301,12 @@
         <v>1.5666666666666667</v>
       </c>
       <c r="C22" s="15">
-        <f>MAX(0, approx!P22*approx!I22/approx!O22-approx!H22)</f>
-        <v>645.86666666666679</v>
-      </c>
-      <c r="D22" s="15">
+        <f>MAX(0, (approx!P22*(approx!I22-1)+approx!N22)/approx!O22-approx!H22)</f>
+        <v>1667.6</v>
+      </c>
+      <c r="D22" s="49">
         <f>approx!H22+C22</f>
-        <v>1782.8666666666668</v>
+        <v>2804.6</v>
       </c>
       <c r="E22" s="21">
         <f>approx!C22</f>
@@ -3136,14 +3316,24 @@
         <f>approx!D22</f>
         <v>-7.7000000000000002E-3</v>
       </c>
+      <c r="G22" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H22" s="15">
         <f>approx!I22</f>
         <v>1138</v>
       </c>
+      <c r="I22" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="J22" s="25">
         <f>H22*approx!P22</f>
         <v>5.3486000000000002</v>
       </c>
+      <c r="K22" s="41">
+        <f>J22/60</f>
+        <v>8.9143333333333338E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
@@ -3154,10 +3344,10 @@
         <v>1.75</v>
       </c>
       <c r="C23" s="15">
-        <f>MAX(0, approx!P23*approx!I23/approx!O23-approx!H23)</f>
+        <f>MAX(0, (approx!P23*(approx!I23-1)+approx!N23)/approx!O23-approx!H23)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="49">
         <f>approx!H23+C23</f>
         <v>4838</v>
       </c>
@@ -3169,14 +3359,24 @@
         <f>approx!D23</f>
         <v>-6.4999999999999997E-3</v>
       </c>
+      <c r="G23" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="H23" s="15">
         <f>approx!I23</f>
         <v>470</v>
       </c>
+      <c r="I23" s="40" t="s">
+        <v>132</v>
+      </c>
       <c r="J23" s="25">
         <f>H23*approx!P23</f>
         <v>1.974</v>
       </c>
+      <c r="K23" s="41">
+        <f>J23/48</f>
+        <v>4.1125000000000002E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
@@ -3187,54 +3387,52 @@
         <v>1.8333333333333335</v>
       </c>
       <c r="C24" s="15">
-        <f>MAX(0, approx!P24*approx!I24/approx!O24-approx!H24)</f>
-        <v>3979.3333333333339</v>
-      </c>
-      <c r="D24" s="37">
+        <f>MAX(0, (approx!P24*(approx!I24-1)+approx!N24)/approx!O24-approx!H24)</f>
+        <v>6691.6111111111113</v>
+      </c>
+      <c r="D24" s="45">
         <f>approx!H24+C24</f>
-        <v>8752.3333333333339</v>
+        <v>11464.611111111111</v>
       </c>
       <c r="E24" s="21">
-        <f>approx!C24</f>
-        <v>-6.4000000000000003E-3</v>
+        <f>-0.007519276</f>
+        <v>-7.5192760000000001E-3</v>
       </c>
       <c r="F24" s="21">
         <f>approx!D24</f>
         <v>-0.03</v>
       </c>
-      <c r="G24" s="47" t="s">
-        <v>124</v>
+      <c r="G24" s="38" t="s">
+        <v>119</v>
       </c>
       <c r="H24" s="15">
         <f>approx!I24</f>
         <v>4774</v>
       </c>
-      <c r="I24" s="50" t="s">
-        <v>127</v>
+      <c r="I24" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="J24" s="25">
         <f>H24*approx!P24</f>
         <v>15.754199999999999</v>
       </c>
-      <c r="K24" s="54">
+      <c r="K24" s="41">
         <f>J24/36</f>
         <v>0.43761666666666665</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
@@ -3243,6 +3441,8 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3251,16 +3451,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="5" width="6.21875" style="15" customWidth="1"/>
+    <col min="2" max="3" width="6.21875" style="15" customWidth="1"/>
+    <col min="4" max="5" width="7.44140625" style="15" customWidth="1"/>
     <col min="6" max="6" width="3.21875" customWidth="1"/>
     <col min="7" max="9" width="10.109375" style="15" customWidth="1"/>
   </cols>
@@ -3269,14 +3482,16 @@
       <c r="A1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="52"/>
       <c r="J1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3284,16 +3499,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>2</v>
@@ -3302,7 +3517,7 @@
         <v>88</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3483,8 +3698,8 @@
       <c r="C10" s="15">
         <v>1130</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>116</v>
+      <c r="D10" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E10" s="15">
         <v>1141</v>
@@ -3509,8 +3724,8 @@
       <c r="C11" s="15">
         <v>865</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>116</v>
+      <c r="D11" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E11" s="15">
         <v>880</v>
@@ -3535,8 +3750,8 @@
       <c r="C12" s="15">
         <v>2857</v>
       </c>
-      <c r="D12" s="47" t="s">
-        <v>116</v>
+      <c r="D12" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E12" s="15">
         <v>2944</v>
@@ -3561,8 +3776,8 @@
       <c r="C13" s="15">
         <v>2012</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>116</v>
+      <c r="D13" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="15">
         <v>2069</v>
@@ -3582,15 +3797,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -461,13 +461,13 @@
     <t>&gt; 70.00</t>
   </si>
   <si>
-    <t>re-com.</t>
-  </si>
-  <si>
     <t>generic</t>
   </si>
   <si>
     <t>SAG minus SG</t>
+  </si>
+  <si>
+    <t>ahead</t>
   </si>
 </sst>
 </file>
@@ -1717,21 +1717,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="28" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="2.88671875" style="28" customWidth="1"/>
     <col min="7" max="8" width="7.5546875" style="32" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
-    <col min="12" max="13" width="6.21875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="31" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="6.21875" style="24" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.44140625" style="24" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="24" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" style="24" customWidth="1"/>
@@ -1795,7 +1795,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="33" t="s">
@@ -2651,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -3433,16 +3433,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3466,7 +3466,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3505,10 +3505,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>2</v>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="139">
   <si>
     <t>Dataset</t>
   </si>
@@ -373,9 +373,6 @@
     <t>*99%tile time are the same, so we used avg time to calculate multiplier</t>
   </si>
   <si>
-    <t>Given more time, i.e. an amount of time similar to SAG-A to account for re-computing, can SG yield an approximiation similar to or better than SAG?</t>
-  </si>
-  <si>
     <t>99%tile (sec) to reach better approx.</t>
   </si>
   <si>
@@ -394,8 +391,47 @@
     <t>SAG-MF</t>
   </si>
   <si>
+    <t>&gt; 58.00</t>
+  </si>
+  <si>
+    <t>&gt; 44.00</t>
+  </si>
+  <si>
+    <t>&gt; 46.00</t>
+  </si>
+  <si>
+    <t>&gt; 106.00</t>
+  </si>
+  <si>
+    <t>&gt; 118.00</t>
+  </si>
+  <si>
+    <t>&gt; 150.00</t>
+  </si>
+  <si>
+    <t>&gt; 48.00</t>
+  </si>
+  <si>
+    <t>&gt; 60.00</t>
+  </si>
+  <si>
+    <t>&gt; 70.00</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>SAG minus SG</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>SAG-recomputed</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">SAG-MF time
+      <t xml:space="preserve">SAG-re. time
 </t>
     </r>
     <r>
@@ -419,7 +455,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SAG-MF time</t>
+      <t>SAG-re. time</t>
     </r>
     <r>
       <rPr>
@@ -434,40 +470,7 @@
     </r>
   </si>
   <si>
-    <t>&gt; 58.00</t>
-  </si>
-  <si>
-    <t>&gt; 44.00</t>
-  </si>
-  <si>
-    <t>&gt; 46.00</t>
-  </si>
-  <si>
-    <t>&gt; 106.00</t>
-  </si>
-  <si>
-    <t>&gt; 118.00</t>
-  </si>
-  <si>
-    <t>&gt; 150.00</t>
-  </si>
-  <si>
-    <t>&gt; 48.00</t>
-  </si>
-  <si>
-    <t>&gt; 60.00</t>
-  </si>
-  <si>
-    <t>&gt; 70.00</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>SAG minus SG</t>
-  </si>
-  <si>
-    <t>ahead</t>
+    <t>Given more time, i.e. an amount of time similar to SAG-re to account for re-computing, SG still could not yield an approximiation similar to or better than SAG in 14/15 cases.</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +651,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1307,23 +1313,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="51"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="51"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1422,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1718,7 +1724,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,40 +1752,40 @@
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="54" t="s">
+      <c r="R1" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1792,10 +1798,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="33" t="s">
@@ -1805,7 +1811,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
@@ -1815,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>103</v>
@@ -1824,7 +1830,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="27" t="s">
@@ -1834,7 +1840,7 @@
         <v>36</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U2" s="27" t="s">
         <v>103</v>
@@ -1843,7 +1849,7 @@
         <v>36</v>
       </c>
       <c r="W2" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -1883,11 +1889,11 @@
       <c r="A5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
@@ -2165,11 +2171,11 @@
       <c r="A12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2400,11 +2406,11 @@
       <c r="A19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2651,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2671,55 +2677,55 @@
       <c r="A1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="52"/>
+      <c r="G1" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="61" t="s">
-        <v>118</v>
-      </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="59" t="s">
-        <v>124</v>
+      <c r="H1" s="53"/>
+      <c r="I1" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="62"/>
+      <c r="K1" s="60" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>123</v>
+      <c r="F2" s="50" t="s">
+        <v>135</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="60"/>
+      <c r="J2" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2744,10 +2750,10 @@
       <c r="A5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -2774,14 +2780,14 @@
         <v>0.29260000000000003</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" s="15">
         <f>approx!I6</f>
         <v>2474</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J6" s="25">
         <f>H6*approx!P6</f>
@@ -2817,15 +2823,14 @@
         <v>0.18809999999999999</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="15">
         <f>approx!I7</f>
         <v>4489</v>
       </c>
-      <c r="I7" s="25">
-        <f>approx!O7*20000</f>
-        <v>47.999999999999993</v>
+      <c r="I7" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="J7" s="25">
         <f>H7*approx!P7</f>
@@ -2904,14 +2909,14 @@
         <v>0.27789999999999998</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="15">
         <f>approx!I9</f>
         <v>1357</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J9" s="25">
         <f>H9*approx!P9</f>
@@ -2947,14 +2952,14 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H10" s="15">
         <f>approx!I10</f>
         <v>3857</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J10" s="25">
         <f>H10*approx!P10</f>
@@ -2973,10 +2978,10 @@
         <v>92</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="51"/>
+      <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -3003,14 +3008,14 @@
         <v>-0.2727</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="15">
         <f>approx!I13</f>
         <v>1868</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J13" s="25">
         <f>H13*approx!P13</f>
@@ -3046,14 +3051,14 @@
         <v>-1.0665</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" s="15">
         <f>approx!I14</f>
         <v>1486</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J14" s="25">
         <f>H14*approx!P14</f>
@@ -3089,14 +3094,14 @@
         <v>-0.2712</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="15">
         <f>approx!I15</f>
         <v>249</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J15" s="25">
         <f>H15*approx!P15</f>
@@ -3132,14 +3137,14 @@
         <v>-0.27460000000000001</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="15">
         <f>approx!I16</f>
         <v>917</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J16" s="25">
         <f>H16*approx!P16</f>
@@ -3175,14 +3180,14 @@
         <v>-0.27379999999999999</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" s="15">
         <f>approx!I17</f>
         <v>3460</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J17" s="25">
         <f>H17*approx!P17</f>
@@ -3201,10 +3206,10 @@
         <v>93</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -3231,14 +3236,14 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="15">
         <f>approx!I20</f>
         <v>2488</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J20" s="25">
         <f>H20*approx!P20</f>
@@ -3274,14 +3279,14 @@
         <v>-1.41E-2</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="15">
         <f>approx!I21</f>
         <v>4806</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" s="25">
         <f>H21*approx!P21</f>
@@ -3317,14 +3322,14 @@
         <v>-7.7000000000000002E-3</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="15">
         <f>approx!I22</f>
         <v>1138</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J22" s="25">
         <f>H22*approx!P22</f>
@@ -3360,14 +3365,14 @@
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="15">
         <f>approx!I23</f>
         <v>470</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J23" s="25">
         <f>H23*approx!P23</f>
@@ -3403,14 +3408,14 @@
         <v>-0.03</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="15">
         <f>approx!I24</f>
         <v>4774</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J24" s="25">
         <f>H24*approx!P24</f>
@@ -3423,7 +3428,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3433,16 +3438,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3466,7 +3471,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,14 +3487,14 @@
       <c r="A1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="53"/>
       <c r="J1" t="s">
         <v>114</v>
       </c>
@@ -3505,10 +3510,10 @@
         <v>36</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>2</v>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>Dataset</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>./mixNmatchMF/</t>
-  </si>
-  <si>
-    <t>batch for-loop becomes parfor-loop</t>
   </si>
   <si>
     <t>./mixNmatchMF_CLiMF/</t>
@@ -471,6 +468,12 @@
   </si>
   <si>
     <t>Given more time, i.e. an amount of time similar to SAG-re to account for re-computing, SG still could not yield an approximiation similar to or better than SAG in 14/15 cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batch for-loop becomes parfor-loop </t>
+  </si>
+  <si>
+    <t>asynchronous task parallelism, hogwild, distbelief</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="6">
         <v>36</v>
@@ -1319,34 +1322,34 @@
       <c r="C1" s="51"/>
       <c r="D1" s="22"/>
       <c r="E1" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" s="53"/>
       <c r="G1" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H1" s="52"/>
       <c r="I1" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="19">
         <v>0.30537093783118802</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="19">
         <v>0.39336694517248899</v>
@@ -1394,7 +1397,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="19">
         <f t="shared" si="0"/>
@@ -1426,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1439,7 +1442,7 @@
     <col min="3" max="3" width="48.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1450,268 +1453,271 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
         <v>68</v>
       </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1756,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>35</v>
@@ -1760,29 +1766,29 @@
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
       <c r="J1" s="30"/>
       <c r="K1" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L1" s="57"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O1" s="57"/>
       <c r="P1" s="57"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S1" s="55"/>
       <c r="T1" s="55"/>
       <c r="U1" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V1" s="55"/>
       <c r="W1" s="55"/>
@@ -1792,69 +1798,69 @@
         <v>0</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="27"/>
       <c r="G2" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O2" s="26" t="s">
         <v>36</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="T2" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U2" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="W2" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -1887,10 +1893,10 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>100</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>101</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
@@ -1899,7 +1905,7 @@
     </row>
     <row r="6" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="28">
         <v>0.31130000000000002</v>
@@ -1953,7 +1959,7 @@
     </row>
     <row r="7" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="28">
         <v>0.31290000000000001</v>
@@ -2061,7 +2067,7 @@
     </row>
     <row r="9" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="28">
         <v>0.31609999999999999</v>
@@ -2115,7 +2121,7 @@
     </row>
     <row r="10" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="28">
         <v>0.3014</v>
@@ -2169,17 +2175,17 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="28">
         <v>-0.27529999999999999</v>
@@ -2224,7 +2230,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="28">
         <v>-1.0867</v>
@@ -2314,7 +2320,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="28">
         <v>-0.27650000000000002</v>
@@ -2359,7 +2365,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="28">
         <v>-0.27579999999999999</v>
@@ -2404,17 +2410,17 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="28">
         <v>4.8999999999999998E-3</v>
@@ -2459,7 +2465,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="28">
         <v>-8.0000000000000004E-4</v>
@@ -2549,7 +2555,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="28">
         <v>5.1000000000000004E-3</v>
@@ -2594,7 +2600,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="28">
         <v>-5.7000000000000002E-3</v>
@@ -2675,31 +2681,31 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="52" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="52" t="s">
-        <v>111</v>
       </c>
       <c r="F1" s="52"/>
       <c r="G1" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H1" s="53"/>
       <c r="I1" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -2711,25 +2717,25 @@
         <v>36</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>36</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="38"/>
       <c r="G3" s="15">
@@ -2748,16 +2754,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="52" t="s">
         <v>100</v>
-      </c>
-      <c r="E5" s="52" t="s">
-        <v>101</v>
       </c>
       <c r="F5" s="52"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="25">
         <f>approx!P6/approx!O6</f>
@@ -2780,14 +2786,14 @@
         <v>0.29260000000000003</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="15">
         <f>approx!I6</f>
         <v>2474</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="25">
         <f>H6*approx!P6</f>
@@ -2800,7 +2806,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="25">
         <f>approx!M7/approx!L7</f>
@@ -2823,14 +2829,14 @@
         <v>0.18809999999999999</v>
       </c>
       <c r="G7" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="15">
         <f>approx!I7</f>
         <v>4489</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7" s="25">
         <f>H7*approx!P7</f>
@@ -2886,7 +2892,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="25">
         <f>approx!P9/approx!O9</f>
@@ -2909,14 +2915,14 @@
         <v>0.27789999999999998</v>
       </c>
       <c r="G9" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="15">
         <f>approx!I9</f>
         <v>1357</v>
       </c>
       <c r="I9" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J9" s="25">
         <f>H9*approx!P9</f>
@@ -2929,7 +2935,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="25">
         <f>approx!P10/approx!O10</f>
@@ -2952,14 +2958,14 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H10" s="15">
         <f>approx!I10</f>
         <v>3857</v>
       </c>
       <c r="I10" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J10" s="25">
         <f>H10*approx!P10</f>
@@ -2975,17 +2981,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="25">
         <f>approx!P13/approx!O13</f>
@@ -3008,14 +3014,14 @@
         <v>-0.2727</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" s="15">
         <f>approx!I13</f>
         <v>1868</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="25">
         <f>H13*approx!P13</f>
@@ -3028,7 +3034,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="25">
         <f>approx!P14/approx!O14</f>
@@ -3051,14 +3057,14 @@
         <v>-1.0665</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" s="15">
         <f>approx!I14</f>
         <v>1486</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="25">
         <f>H14*approx!P14</f>
@@ -3094,14 +3100,14 @@
         <v>-0.2712</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="15">
         <f>approx!I15</f>
         <v>249</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" s="25">
         <f>H15*approx!P15</f>
@@ -3114,7 +3120,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="25">
         <f>approx!P16/approx!O16</f>
@@ -3137,14 +3143,14 @@
         <v>-0.27460000000000001</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" s="15">
         <f>approx!I16</f>
         <v>917</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="25">
         <f>H16*approx!P16</f>
@@ -3157,7 +3163,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="25">
         <f>approx!P17/approx!O17</f>
@@ -3180,14 +3186,14 @@
         <v>-0.27379999999999999</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="15">
         <f>approx!I17</f>
         <v>3460</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J17" s="25">
         <f>H17*approx!P17</f>
@@ -3203,17 +3209,17 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="25">
         <f>approx!P20/approx!O20</f>
@@ -3236,14 +3242,14 @@
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="15">
         <f>approx!I20</f>
         <v>2488</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J20" s="25">
         <f>H20*approx!P20</f>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="25">
         <f>approx!P21/approx!O21</f>
@@ -3279,14 +3285,14 @@
         <v>-1.41E-2</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="15">
         <f>approx!I21</f>
         <v>4806</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J21" s="25">
         <f>H21*approx!P21</f>
@@ -3322,14 +3328,14 @@
         <v>-7.7000000000000002E-3</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="15">
         <f>approx!I22</f>
         <v>1138</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J22" s="25">
         <f>H22*approx!P22</f>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="25">
         <f>approx!P23/approx!O23</f>
@@ -3365,14 +3371,14 @@
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="15">
         <f>approx!I23</f>
         <v>470</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="25">
         <f>H23*approx!P23</f>
@@ -3385,7 +3391,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="25">
         <f>approx!P24/approx!O24</f>
@@ -3408,14 +3414,14 @@
         <v>-0.03</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="15">
         <f>approx!I24</f>
         <v>4774</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" s="25">
         <f>H24*approx!P24</f>
@@ -3428,26 +3434,26 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3485,18 +3491,18 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="53"/>
       <c r="D1" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="53"/>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3504,30 +3510,30 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="15">
         <v>505</v>
@@ -3556,7 +3562,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="15">
         <v>498</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="15">
         <v>503</v>
@@ -3643,7 +3649,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="15">
         <v>498</v>
@@ -3672,7 +3678,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="15">
         <v>708</v>
@@ -3698,13 +3704,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="15">
         <v>1130</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="15">
         <v>1141</v>
@@ -3730,7 +3736,7 @@
         <v>865</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="15">
         <v>880</v>
@@ -3750,13 +3756,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="15">
         <v>2857</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="15">
         <v>2944</v>
@@ -3776,13 +3782,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="15">
         <v>2012</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="15">
         <v>2069</v>
@@ -3802,10 +3808,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -1431,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1729,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,9 +1741,9 @@
     <col min="6" max="6" width="2.88671875" style="28" customWidth="1"/>
     <col min="7" max="8" width="7.5546875" style="32" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="31" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="6.21875" style="24" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
+    <col min="12" max="13" width="6.21875" style="24" customWidth="1"/>
     <col min="14" max="14" width="8.44140625" style="24" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="24" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" style="24" customWidth="1"/>
@@ -3444,16 +3444,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -559,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -692,6 +692,9 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,7 +1004,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1057,7 @@
       <c r="E2" s="3">
         <v>292</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="63" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1205,7 +1208,7 @@
       <c r="F10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1293,6 +1296,8 @@
     <hyperlink ref="G4" r:id="rId4"/>
     <hyperlink ref="G9" r:id="rId5"/>
     <hyperlink ref="G11" r:id="rId6"/>
+    <hyperlink ref="G2" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1432,7 +1437,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,7 +1735,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1742,8 +1747,8 @@
     <col min="7" max="8" width="7.5546875" style="32" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" style="32" customWidth="1"/>
     <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="24" customWidth="1"/>
-    <col min="12" max="13" width="6.21875" style="24" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="6.21875" style="24" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="8.44140625" style="24" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" style="24" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" style="24" customWidth="1"/>
@@ -2664,7 +2669,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3444,16 +3449,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
   <si>
     <t>Dataset</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>asynchronous task parallelism, hogwild, distbelief</t>
+  </si>
+  <si>
+    <t>SAG-re</t>
   </si>
 </sst>
 </file>
@@ -657,6 +660,9 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,9 +698,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1057,7 +1060,7 @@
       <c r="E2" s="3">
         <v>292</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="51" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1321,23 +1324,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="52" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1735,7 +1738,7 @@
   <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1763,40 +1766,40 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57" t="s">
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="55" t="s">
+      <c r="R1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55" t="s">
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1809,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>132</v>
@@ -1822,7 +1825,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
@@ -1841,7 +1844,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="27" t="s">
@@ -1900,11 +1903,11 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
@@ -2182,11 +2185,11 @@
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2417,11 +2420,11 @@
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2688,36 +2691,36 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="62" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="62"/>
-      <c r="K1" s="60" t="s">
+      <c r="J1" s="63"/>
+      <c r="K1" s="61" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
@@ -2736,7 +2739,7 @@
       <c r="J2" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2761,10 +2764,10 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -2989,10 +2992,10 @@
         <v>91</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -3217,10 +3220,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="52" t="s">
+      <c r="E19" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -3449,16 +3452,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3498,14 +3501,14 @@
       <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="54"/>
       <c r="J1" t="s">
         <v>113</v>
       </c>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>Dataset</t>
   </si>
@@ -422,9 +422,6 @@
   </si>
   <si>
     <t>ahead</t>
-  </si>
-  <si>
-    <t>SAG-recomputed</t>
   </si>
   <si>
     <r>
@@ -562,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,6 +659,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1324,23 +1324,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="52"/>
+      <c r="C1" s="53"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="53" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="53"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1491,10 +1491,10 @@
         <v>54</v>
       </c>
       <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
-      </c>
-      <c r="D4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,8 +1737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,40 +1766,40 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="30"/>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56" t="s">
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1812,7 +1812,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>132</v>
@@ -1825,7 +1825,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="27" t="s">
@@ -1844,7 +1844,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q2" s="26"/>
       <c r="R2" s="27" t="s">
@@ -1903,11 +1903,11 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
     </row>
@@ -2185,11 +2185,11 @@
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -2420,11 +2420,11 @@
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,55 +2691,55 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="63" t="s">
+      <c r="H1" s="55"/>
+      <c r="I1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="61" t="s">
-        <v>135</v>
+      <c r="J1" s="64"/>
+      <c r="K1" s="62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="I2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="62"/>
+      <c r="J2" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2764,10 +2764,10 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="54"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -2992,10 +2992,10 @@
         <v>91</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -3220,10 +3220,10 @@
         <v>92</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="53"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -3442,7 +3442,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3452,16 +3452,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3501,14 +3501,14 @@
       <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="54"/>
+      <c r="E1" s="55"/>
       <c r="J1" t="s">
         <v>113</v>
       </c>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -2672,7 +2672,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12720" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="datasets" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
   <si>
     <t>Dataset</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>SAG-re</t>
+  </si>
+  <si>
+    <t>SVRG</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -545,6 +548,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -559,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,6 +672,10 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,7 +1020,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1071,7 @@
         <v>49288</v>
       </c>
       <c r="E2" s="3">
-        <v>292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>33</v>
@@ -1078,7 +1091,7 @@
         <v>49288</v>
       </c>
       <c r="E3" s="3">
-        <v>3935</v>
+        <v>3.9350000000000001</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>33</v>
@@ -1324,23 +1337,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="54"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1440,7 +1453,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1735,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,62 +1759,66 @@
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="28" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.88671875" style="28" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" style="32" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="32" customWidth="1"/>
-    <col min="10" max="10" width="2.21875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="12" max="13" width="6.21875" style="24" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" style="24" customWidth="1"/>
-    <col min="18" max="19" width="7" style="11" customWidth="1"/>
-    <col min="20" max="20" width="8" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="28" customWidth="1"/>
+    <col min="8" max="9" width="7.5546875" style="32" customWidth="1"/>
+    <col min="10" max="11" width="8.77734375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="2.21875" style="31" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="6.21875" style="24" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="24" customWidth="1"/>
+    <col min="18" max="19" width="8.33203125" style="24" customWidth="1"/>
+    <col min="20" max="20" width="2.109375" style="24" customWidth="1"/>
     <col min="21" max="22" width="7" style="11" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="11" customWidth="1"/>
+    <col min="23" max="23" width="8" style="11" customWidth="1"/>
+    <col min="24" max="25" width="7" style="11" customWidth="1"/>
+    <col min="26" max="26" width="7.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="59" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="57" t="s">
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57" t="s">
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1817,56 +1834,65 @@
       <c r="E2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="J2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" s="30"/>
+      <c r="M2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="O2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="P2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="Q2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="R2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="44" t="s">
-        <v>121</v>
-      </c>
+      <c r="S2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="T2" s="26"/>
       <c r="U2" s="27" t="s">
         <v>102</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="44" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
@@ -1875,18 +1901,18 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
-      <c r="G3" s="32">
+      <c r="G3" s="32"/>
+      <c r="H3" s="32">
         <v>500</v>
-      </c>
-      <c r="H3" s="32">
-        <v>5000</v>
       </c>
       <c r="I3" s="32">
         <v>5000</v>
       </c>
-      <c r="J3" s="36"/>
+      <c r="J3" s="32">
+        <v>5000</v>
+      </c>
       <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="L3" s="36"/>
       <c r="M3" s="32"/>
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
@@ -1898,20 +1924,24 @@
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="53"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
@@ -1929,43 +1959,46 @@
         <v>-1.8499999999999961E-2</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="32">
+      <c r="G6" s="28"/>
+      <c r="H6" s="32">
         <v>500</v>
       </c>
-      <c r="H6" s="32">
+      <c r="I6" s="32">
         <v>2473</v>
       </c>
-      <c r="I6" s="32">
+      <c r="J6" s="32">
         <v>2474</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="24">
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="24">
         <v>7.2293000000000003</v>
       </c>
-      <c r="L6" s="24">
+      <c r="N6" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="M6" s="24">
+      <c r="O6" s="24">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="N6" s="24">
+      <c r="P6" s="24">
         <v>7.8907999999999996</v>
       </c>
-      <c r="O6" s="24">
+      <c r="Q6" s="24">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="P6" s="24">
+      <c r="R6" s="24">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
-    </row>
-    <row r="7" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+    </row>
+    <row r="7" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
@@ -1983,43 +2016,46 @@
         <v>-0.12440000000000001</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="32">
+      <c r="G7" s="28"/>
+      <c r="H7" s="32">
         <v>500</v>
       </c>
-      <c r="H7" s="34">
+      <c r="I7" s="34">
         <v>915</v>
       </c>
-      <c r="I7" s="34">
+      <c r="J7" s="34">
         <v>4489</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="24">
+      <c r="K7" s="34"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="24">
         <v>1.8077000000000001</v>
       </c>
-      <c r="L7" s="24">
+      <c r="N7" s="24">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="M7" s="24">
+      <c r="O7" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="N7" s="24">
+      <c r="P7" s="24">
         <v>2.0920000000000001</v>
       </c>
-      <c r="O7" s="24">
+      <c r="Q7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="P7" s="24">
+      <c r="R7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
-    </row>
-    <row r="8" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+    </row>
+    <row r="8" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>25</v>
       </c>
@@ -2029,7 +2065,7 @@
       <c r="C8" s="28">
         <v>0.29799999999999999</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="54">
         <v>0.29899999999999999</v>
       </c>
       <c r="E8" s="28">
@@ -2037,43 +2073,46 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="32">
+      <c r="G8" s="28"/>
+      <c r="H8" s="32">
         <v>500</v>
       </c>
-      <c r="H8" s="32">
+      <c r="I8" s="32">
         <v>4144</v>
       </c>
-      <c r="I8" s="32">
+      <c r="J8" s="32">
         <v>4145</v>
       </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="24">
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="24">
         <v>2.0480999999999998</v>
       </c>
-      <c r="L8" s="24">
+      <c r="N8" s="24">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M8" s="24">
+      <c r="O8" s="24">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="N8" s="24">
+      <c r="P8" s="24">
         <v>2.3018999999999998</v>
       </c>
-      <c r="O8" s="24">
+      <c r="Q8" s="24">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="P8" s="24">
+      <c r="R8" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
-    </row>
-    <row r="9" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+    </row>
+    <row r="9" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>81</v>
       </c>
@@ -2091,43 +2130,46 @@
         <v>-3.8000000000000034E-2</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="32">
+      <c r="G9" s="28"/>
+      <c r="H9" s="32">
         <v>500</v>
       </c>
-      <c r="H9" s="34">
+      <c r="I9" s="34">
         <v>1862</v>
       </c>
-      <c r="I9" s="34">
+      <c r="J9" s="34">
         <v>1357</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="24">
+      <c r="K9" s="34"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="24">
         <v>6.2801</v>
       </c>
-      <c r="L9" s="24">
+      <c r="N9" s="24">
         <v>1.4E-3</v>
       </c>
-      <c r="M9" s="24">
+      <c r="O9" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="N9" s="24">
+      <c r="P9" s="24">
         <v>7.0240999999999998</v>
       </c>
-      <c r="O9" s="24">
+      <c r="Q9" s="24">
         <v>2.3E-3</v>
       </c>
-      <c r="P9" s="24">
+      <c r="R9" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
-    </row>
-    <row r="10" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+    </row>
+    <row r="10" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
@@ -2145,53 +2187,56 @@
         <v>-3.2599999999999962E-2</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="32">
+      <c r="G10" s="28"/>
+      <c r="H10" s="32">
         <v>500</v>
       </c>
-      <c r="H10" s="32">
+      <c r="I10" s="32">
         <v>3856</v>
       </c>
-      <c r="I10" s="32">
+      <c r="J10" s="32">
         <v>3857</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="24">
+      <c r="K10" s="32"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="24">
         <v>4.0510999999999999</v>
       </c>
-      <c r="L10" s="24">
+      <c r="N10" s="24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M10" s="24">
+      <c r="O10" s="24">
         <v>2.8E-3</v>
       </c>
-      <c r="N10" s="24">
+      <c r="P10" s="24">
         <v>4.2845000000000004</v>
       </c>
-      <c r="O10" s="24">
+      <c r="Q10" s="24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="P10" s="24">
+      <c r="R10" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
@@ -2208,35 +2253,35 @@
         <f t="shared" si="0"/>
         <v>8.2999999999999741E-4</v>
       </c>
-      <c r="G13" s="32">
+      <c r="H13" s="32">
         <v>500</v>
       </c>
-      <c r="H13" s="32">
+      <c r="I13" s="32">
         <v>1867</v>
       </c>
-      <c r="I13" s="32">
+      <c r="J13" s="32">
         <v>1868</v>
       </c>
-      <c r="K13" s="24">
+      <c r="M13" s="24">
         <v>38.302199999999999</v>
       </c>
-      <c r="L13" s="24">
+      <c r="N13" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="M13" s="24">
+      <c r="O13" s="24">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="N13" s="24">
+      <c r="P13" s="24">
         <v>40.990699999999997</v>
       </c>
-      <c r="O13" s="24">
+      <c r="Q13" s="24">
         <v>5.3E-3</v>
       </c>
-      <c r="P13" s="24">
+      <c r="R13" s="24">
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>80</v>
       </c>
@@ -2253,35 +2298,35 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="G14" s="32">
+      <c r="H14" s="32">
         <v>500</v>
       </c>
-      <c r="H14" s="32">
+      <c r="I14" s="32">
         <v>1485</v>
       </c>
-      <c r="I14" s="32">
+      <c r="J14" s="32">
         <v>1486</v>
       </c>
-      <c r="K14" s="24">
+      <c r="M14" s="24">
         <v>20.59</v>
       </c>
-      <c r="L14" s="24">
+      <c r="N14" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M14" s="24">
+      <c r="O14" s="24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N14" s="24">
+      <c r="P14" s="24">
         <v>23.676300000000001</v>
       </c>
-      <c r="O14" s="24">
+      <c r="Q14" s="24">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="P14" s="24">
+      <c r="R14" s="24">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
@@ -2298,35 +2343,35 @@
         <f t="shared" si="0"/>
         <v>3.0000000000002247E-4</v>
       </c>
-      <c r="G15" s="32">
+      <c r="H15" s="32">
         <v>500</v>
       </c>
-      <c r="H15" s="32">
+      <c r="I15" s="32">
         <v>248</v>
       </c>
-      <c r="I15" s="32">
+      <c r="J15" s="32">
         <v>249</v>
       </c>
-      <c r="K15" s="24">
+      <c r="M15" s="24">
         <v>8.3247999999999998</v>
       </c>
-      <c r="L15" s="24">
+      <c r="N15" s="24">
         <v>3.3E-3</v>
       </c>
-      <c r="M15" s="24">
+      <c r="O15" s="24">
         <v>7.7000000000000002E-3</v>
       </c>
-      <c r="N15" s="24">
+      <c r="P15" s="24">
         <v>8.548</v>
       </c>
-      <c r="O15" s="24">
+      <c r="Q15" s="24">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="P15" s="24">
+      <c r="R15" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
@@ -2343,35 +2388,35 @@
         <f t="shared" si="0"/>
         <v>1.9000000000000128E-3</v>
       </c>
-      <c r="G16" s="32">
+      <c r="H16" s="32">
         <v>500</v>
       </c>
-      <c r="H16" s="32">
+      <c r="I16" s="32">
         <v>916</v>
       </c>
-      <c r="I16" s="32">
+      <c r="J16" s="32">
         <v>917</v>
       </c>
-      <c r="K16" s="24">
+      <c r="M16" s="24">
         <v>33.615400000000001</v>
       </c>
-      <c r="L16" s="24">
+      <c r="N16" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="M16" s="24">
+      <c r="O16" s="24">
         <v>1.26E-2</v>
       </c>
-      <c r="N16" s="24">
+      <c r="P16" s="24">
         <v>37.056399999999996</v>
       </c>
-      <c r="O16" s="24">
+      <c r="Q16" s="24">
         <v>5.3E-3</v>
       </c>
-      <c r="P16" s="24">
+      <c r="R16" s="24">
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>82</v>
       </c>
@@ -2388,45 +2433,45 @@
         <f t="shared" si="0"/>
         <v>1.9000000000000128E-3</v>
       </c>
-      <c r="G17" s="32">
+      <c r="H17" s="32">
         <v>500</v>
       </c>
-      <c r="H17" s="32">
+      <c r="I17" s="32">
         <v>3459</v>
       </c>
-      <c r="I17" s="32">
+      <c r="J17" s="32">
         <v>3460</v>
       </c>
-      <c r="K17" s="24">
+      <c r="M17" s="24">
         <v>19.432700000000001</v>
       </c>
-      <c r="L17" s="24">
+      <c r="N17" s="24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M17" s="24">
+      <c r="O17" s="24">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="N17" s="24">
+      <c r="P17" s="24">
         <v>21.774699999999999</v>
       </c>
-      <c r="O17" s="24">
+      <c r="Q17" s="24">
         <v>3.8E-3</v>
       </c>
-      <c r="P17" s="24">
+      <c r="R17" s="24">
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -2443,35 +2488,35 @@
         <f t="shared" si="0"/>
         <v>-1.17E-2</v>
       </c>
-      <c r="G20" s="32">
+      <c r="H20" s="32">
         <v>500</v>
       </c>
-      <c r="H20" s="32">
+      <c r="I20" s="32">
         <v>2487</v>
       </c>
-      <c r="I20" s="32">
+      <c r="J20" s="32">
         <v>2488</v>
       </c>
-      <c r="K20" s="24">
+      <c r="M20" s="24">
         <v>11.6623</v>
       </c>
-      <c r="L20" s="24">
+      <c r="N20" s="24">
         <v>1.9E-3</v>
       </c>
-      <c r="M20" s="24">
+      <c r="O20" s="24">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="N20" s="24">
+      <c r="P20" s="24">
         <v>12.8986</v>
       </c>
-      <c r="O20" s="24">
+      <c r="Q20" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="P20" s="24">
+      <c r="R20" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>80</v>
       </c>
@@ -2488,35 +2533,35 @@
         <f t="shared" si="0"/>
         <v>-1.29E-2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="H21" s="32">
         <v>500</v>
       </c>
-      <c r="H21" s="32">
+      <c r="I21" s="32">
         <v>4805</v>
       </c>
-      <c r="I21" s="32">
+      <c r="J21" s="32">
         <v>4806</v>
       </c>
-      <c r="K21" s="24">
+      <c r="M21" s="24">
         <v>2.1789999999999998</v>
       </c>
-      <c r="L21" s="24">
+      <c r="N21" s="24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M21" s="24">
+      <c r="O21" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="N21" s="24">
+      <c r="P21" s="24">
         <v>2.6392000000000002</v>
       </c>
-      <c r="O21" s="24">
+      <c r="Q21" s="24">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="P21" s="24">
+      <c r="R21" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
@@ -2533,35 +2578,35 @@
         <f t="shared" si="0"/>
         <v>-3.8000000000000004E-3</v>
       </c>
-      <c r="G22" s="32">
+      <c r="H22" s="32">
         <v>500</v>
       </c>
-      <c r="H22" s="32">
+      <c r="I22" s="32">
         <v>1137</v>
       </c>
-      <c r="I22" s="32">
+      <c r="J22" s="32">
         <v>1138</v>
       </c>
-      <c r="K22" s="24">
+      <c r="M22" s="24">
         <v>2.6092</v>
       </c>
-      <c r="L22" s="24">
+      <c r="N22" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="M22" s="24">
+      <c r="O22" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="N22" s="24">
+      <c r="P22" s="24">
         <v>3.0699000000000001</v>
       </c>
-      <c r="O22" s="24">
+      <c r="Q22" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P22" s="24">
+      <c r="R22" s="24">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>81</v>
       </c>
@@ -2578,35 +2623,36 @@
         <f t="shared" si="0"/>
         <v>-1.1299999999999999E-2</v>
       </c>
-      <c r="G23" s="32">
+      <c r="H23" s="32">
         <v>500</v>
       </c>
-      <c r="H23" s="34">
+      <c r="I23" s="34">
         <v>4838</v>
       </c>
-      <c r="I23" s="34">
+      <c r="J23" s="34">
         <v>470</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="34"/>
+      <c r="M23" s="24">
         <v>7.2591999999999999</v>
       </c>
-      <c r="L23" s="24">
+      <c r="N23" s="24">
         <v>1.4E-3</v>
       </c>
-      <c r="M23" s="24">
+      <c r="O23" s="24">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="N23" s="24">
+      <c r="P23" s="24">
         <v>8.2581000000000007</v>
       </c>
-      <c r="O23" s="24">
+      <c r="Q23" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="P23" s="24">
+      <c r="R23" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>82</v>
       </c>
@@ -2623,31 +2669,31 @@
         <f t="shared" si="0"/>
         <v>-2.3599999999999999E-2</v>
       </c>
-      <c r="G24" s="32">
+      <c r="H24" s="32">
         <v>500</v>
       </c>
-      <c r="H24" s="32">
+      <c r="I24" s="32">
         <v>4773</v>
       </c>
-      <c r="I24" s="32">
+      <c r="J24" s="32">
         <v>4774</v>
       </c>
-      <c r="K24" s="24">
+      <c r="M24" s="24">
         <v>4.6547000000000001</v>
       </c>
-      <c r="L24" s="24">
+      <c r="N24" s="24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M24" s="24">
+      <c r="O24" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N24" s="24">
+      <c r="P24" s="24">
         <v>4.8853999999999997</v>
       </c>
-      <c r="O24" s="24">
+      <c r="Q24" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="P24" s="24">
+      <c r="R24" s="24">
         <v>3.3E-3</v>
       </c>
     </row>
@@ -2656,12 +2702,12 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2671,8 +2717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2691,36 +2737,36 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="64" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="64"/>
-      <c r="K1" s="62" t="s">
+      <c r="J1" s="66"/>
+      <c r="K1" s="64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
@@ -2739,7 +2785,7 @@
       <c r="J2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="63"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2764,25 +2810,25 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="25">
-        <f>approx!P6/approx!O6</f>
+        <f>approx!R6/approx!Q6</f>
         <v>1.7586206896551726</v>
       </c>
       <c r="C6" s="15">
-        <f>MAX(0, (approx!P6*(approx!I6-1)+approx!N6)/approx!O6-approx!H6)</f>
+        <f>MAX(0, (approx!R6*(approx!J6-1)+approx!P6)/approx!Q6-approx!I6)</f>
         <v>4597.0344827586214</v>
       </c>
       <c r="D6" s="45">
-        <f>approx!H6+C6</f>
+        <f>approx!I6+C6</f>
         <v>7070.0344827586214</v>
       </c>
       <c r="E6" s="21">
@@ -2797,14 +2843,14 @@
         <v>117</v>
       </c>
       <c r="H6" s="15">
-        <f>approx!I6</f>
+        <f>approx!J6</f>
         <v>2474</v>
       </c>
       <c r="I6" s="40" t="s">
         <v>122</v>
       </c>
       <c r="J6" s="25">
-        <f>H6*approx!P6</f>
+        <f>H6*approx!R6</f>
         <v>12.617400000000002</v>
       </c>
       <c r="K6" s="41">
@@ -2817,15 +2863,15 @@
         <v>114</v>
       </c>
       <c r="B7" s="25">
-        <f>approx!M7/approx!L7</f>
+        <f>approx!O7/approx!N7</f>
         <v>1.3846153846153846</v>
       </c>
       <c r="C7" s="15">
-        <f>MAX(0, (approx!P7*(approx!I7-1)+approx!N7)/approx!O7-approx!H7)</f>
+        <f>MAX(0, (approx!R7*(approx!J7-1)+approx!P7)/approx!Q7-approx!I7)</f>
         <v>4444.666666666667</v>
       </c>
       <c r="D7" s="45">
-        <f>approx!H7+C7</f>
+        <f>approx!I7+C7</f>
         <v>5359.666666666667</v>
       </c>
       <c r="E7" s="47">
@@ -2840,14 +2886,14 @@
         <v>117</v>
       </c>
       <c r="H7" s="15">
-        <f>approx!I7</f>
+        <f>approx!J7</f>
         <v>4489</v>
       </c>
       <c r="I7" s="40" t="s">
         <v>128</v>
       </c>
       <c r="J7" s="25">
-        <f>H7*approx!P7</f>
+        <f>H7*approx!R7</f>
         <v>10.773599999999998</v>
       </c>
       <c r="K7" s="41">
@@ -2860,15 +2906,15 @@
         <v>25</v>
       </c>
       <c r="B8" s="25">
-        <f>approx!P8/approx!O8</f>
+        <f>approx!R8/approx!Q8</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="C8" s="15">
-        <f>MAX(0, (approx!P8*(approx!I8-1)+approx!N8)/approx!O8-approx!H8)</f>
+        <f>MAX(0, (approx!R8*(approx!J8-1)+approx!P8)/approx!Q8-approx!I8)</f>
         <v>3154.7777777777765</v>
       </c>
       <c r="D8" s="45">
-        <f>approx!H8+C8</f>
+        <f>approx!I8+C8</f>
         <v>7298.7777777777765</v>
       </c>
       <c r="E8" s="46">
@@ -2882,15 +2928,15 @@
         <v>5153</v>
       </c>
       <c r="H8" s="15">
-        <f>approx!I8</f>
+        <f>approx!J8</f>
         <v>4145</v>
       </c>
       <c r="I8" s="25">
-        <f>approx!O8*G8</f>
+        <f>approx!Q8*G8</f>
         <v>13.9131</v>
       </c>
       <c r="J8" s="25">
-        <f>H8*approx!P8</f>
+        <f>H8*approx!R8</f>
         <v>17.408999999999999</v>
       </c>
       <c r="K8" s="48">
@@ -2903,15 +2949,15 @@
         <v>81</v>
       </c>
       <c r="B9" s="25">
-        <f>approx!P9/approx!O9</f>
+        <f>approx!R9/approx!Q9</f>
         <v>1.4782608695652173</v>
       </c>
       <c r="C9" s="15">
-        <f>MAX(0, (approx!P9*(approx!I9-1)+approx!N9)/approx!O9-approx!H9)</f>
+        <f>MAX(0, (approx!R9*(approx!J9-1)+approx!P9)/approx!Q9-approx!I9)</f>
         <v>3196.478260869565</v>
       </c>
       <c r="D9" s="45">
-        <f>approx!H9+C9</f>
+        <f>approx!I9+C9</f>
         <v>5058.478260869565</v>
       </c>
       <c r="E9" s="21">
@@ -2926,14 +2972,14 @@
         <v>117</v>
       </c>
       <c r="H9" s="15">
-        <f>approx!I9</f>
+        <f>approx!J9</f>
         <v>1357</v>
       </c>
       <c r="I9" s="40" t="s">
         <v>124</v>
       </c>
       <c r="J9" s="25">
-        <f>H9*approx!P9</f>
+        <f>H9*approx!R9</f>
         <v>4.6137999999999995</v>
       </c>
       <c r="K9" s="41">
@@ -2946,15 +2992,15 @@
         <v>82</v>
       </c>
       <c r="B10" s="25">
-        <f>approx!P10/approx!O10</f>
+        <f>approx!R10/approx!Q10</f>
         <v>1.3636363636363635</v>
       </c>
       <c r="C10" s="15">
-        <f>MAX(0, (approx!P10*(approx!I10-1)+approx!N10)/approx!O10-approx!H10)</f>
+        <f>MAX(0, (approx!R10*(approx!J10-1)+approx!P10)/approx!Q10-approx!I10)</f>
         <v>3349.6818181818171</v>
       </c>
       <c r="D10" s="45">
-        <f>approx!H10+C10</f>
+        <f>approx!I10+C10</f>
         <v>7205.6818181818171</v>
       </c>
       <c r="E10" s="47">
@@ -2969,14 +3015,14 @@
         <v>117</v>
       </c>
       <c r="H10" s="15">
-        <f>approx!I10</f>
+        <f>approx!J10</f>
         <v>3857</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>123</v>
       </c>
       <c r="J10" s="25">
-        <f>H10*approx!P10</f>
+        <f>H10*approx!R10</f>
         <v>11.571</v>
       </c>
       <c r="K10" s="41">
@@ -2992,25 +3038,25 @@
         <v>91</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="25">
-        <f>approx!P13/approx!O13</f>
+        <f>approx!R13/approx!Q13</f>
         <v>2.358490566037736</v>
       </c>
       <c r="C13" s="15">
-        <f>MAX(0, (approx!P13*(approx!I13-1)+approx!N13)/approx!O13-approx!H13)</f>
+        <f>MAX(0, (approx!R13*(approx!J13-1)+approx!P13)/approx!Q13-approx!I13)</f>
         <v>10270.396226415094</v>
       </c>
       <c r="D13" s="45">
-        <f>approx!H13+C13</f>
+        <f>approx!I13+C13</f>
         <v>12137.396226415094</v>
       </c>
       <c r="E13" s="21">
@@ -3025,14 +3071,14 @@
         <v>117</v>
       </c>
       <c r="H13" s="15">
-        <f>approx!I13</f>
+        <f>approx!J13</f>
         <v>1868</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J13" s="25">
-        <f>H13*approx!P13</f>
+        <f>H13*approx!R13</f>
         <v>23.35</v>
       </c>
       <c r="K13" s="41">
@@ -3045,15 +3091,15 @@
         <v>80</v>
       </c>
       <c r="B14" s="25">
-        <f>approx!P14/approx!O14</f>
+        <f>approx!R14/approx!Q14</f>
         <v>1.8135593220338984</v>
       </c>
       <c r="C14" s="15">
-        <f>MAX(0, (approx!P14*(approx!I14-1)+approx!N14)/approx!O14-approx!H14)</f>
+        <f>MAX(0, (approx!R14*(approx!J14-1)+approx!P14)/approx!Q14-approx!I14)</f>
         <v>5221.0677966101703</v>
       </c>
       <c r="D14" s="45">
-        <f>approx!H14+C14</f>
+        <f>approx!I14+C14</f>
         <v>6706.0677966101703</v>
       </c>
       <c r="E14" s="21">
@@ -3068,14 +3114,14 @@
         <v>117</v>
       </c>
       <c r="H14" s="15">
-        <f>approx!I14</f>
+        <f>approx!J14</f>
         <v>1486</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>126</v>
       </c>
       <c r="J14" s="25">
-        <f>H14*approx!P14</f>
+        <f>H14*approx!R14</f>
         <v>15.9002</v>
       </c>
       <c r="K14" s="41">
@@ -3088,15 +3134,15 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <f>approx!P15/approx!O15</f>
+        <f>approx!R15/approx!Q15</f>
         <v>1.4666666666666666</v>
       </c>
       <c r="C15" s="15">
-        <f>MAX(0, (approx!P15*(approx!I15-1)+approx!N15)/approx!O15-approx!H15)</f>
+        <f>MAX(0, (approx!R15*(approx!J15-1)+approx!P15)/approx!Q15-approx!I15)</f>
         <v>1255.4666666666667</v>
       </c>
       <c r="D15" s="49">
-        <f>approx!H15+C15</f>
+        <f>approx!I15+C15</f>
         <v>1503.4666666666667</v>
       </c>
       <c r="E15" s="21">
@@ -3111,14 +3157,14 @@
         <v>117</v>
       </c>
       <c r="H15" s="15">
-        <f>approx!I15</f>
+        <f>approx!J15</f>
         <v>249</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>127</v>
       </c>
       <c r="J15" s="25">
-        <f>H15*approx!P15</f>
+        <f>H15*approx!R15</f>
         <v>2.7389999999999999</v>
       </c>
       <c r="K15" s="41">
@@ -3131,15 +3177,15 @@
         <v>81</v>
       </c>
       <c r="B16" s="25">
-        <f>approx!P16/approx!O16</f>
+        <f>approx!R16/approx!Q16</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="C16" s="15">
-        <f>MAX(0, (approx!P16*(approx!I16-1)+approx!N16)/approx!O16-approx!H16)</f>
+        <f>MAX(0, (approx!R16*(approx!J16-1)+approx!P16)/approx!Q16-approx!I16)</f>
         <v>7890.4905660377353</v>
       </c>
       <c r="D16" s="45">
-        <f>approx!H16+C16</f>
+        <f>approx!I16+C16</f>
         <v>8806.4905660377353</v>
       </c>
       <c r="E16" s="21">
@@ -3154,14 +3200,14 @@
         <v>117</v>
       </c>
       <c r="H16" s="15">
-        <f>approx!I16</f>
+        <f>approx!J16</f>
         <v>917</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>125</v>
       </c>
       <c r="J16" s="25">
-        <f>H16*approx!P16</f>
+        <f>H16*approx!R16</f>
         <v>9.6285000000000007</v>
       </c>
       <c r="K16" s="41">
@@ -3174,15 +3220,15 @@
         <v>82</v>
       </c>
       <c r="B17" s="25">
-        <f>approx!P17/approx!O17</f>
+        <f>approx!R17/approx!Q17</f>
         <v>2.0526315789473681</v>
       </c>
       <c r="C17" s="15">
-        <f>MAX(0, (approx!P17*(approx!I17-1)+approx!N17)/approx!O17-approx!H17)</f>
+        <f>MAX(0, (approx!R17*(approx!J17-1)+approx!P17)/approx!Q17-approx!I17)</f>
         <v>9371.2368421052633</v>
       </c>
       <c r="D17" s="45">
-        <f>approx!H17+C17</f>
+        <f>approx!I17+C17</f>
         <v>12830.236842105263</v>
       </c>
       <c r="E17" s="21">
@@ -3197,14 +3243,14 @@
         <v>117</v>
       </c>
       <c r="H17" s="15">
-        <f>approx!I17</f>
+        <f>approx!J17</f>
         <v>3460</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>118</v>
       </c>
       <c r="J17" s="25">
-        <f>H17*approx!P17</f>
+        <f>H17*approx!R17</f>
         <v>26.988</v>
       </c>
       <c r="K17" s="41">
@@ -3220,25 +3266,25 @@
         <v>92</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="25">
-        <f>approx!P20/approx!O20</f>
+        <f>approx!R20/approx!Q20</f>
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <f>MAX(0, (approx!P20*(approx!I20-1)+approx!N20)/approx!O20-approx!H20)</f>
+        <f>MAX(0, (approx!R20*(approx!J20-1)+approx!P20)/approx!Q20-approx!I20)</f>
         <v>6172.3142857142866</v>
       </c>
       <c r="D20" s="45">
-        <f>approx!H20+C20</f>
+        <f>approx!I20+C20</f>
         <v>8659.3142857142866</v>
       </c>
       <c r="E20" s="21">
@@ -3253,14 +3299,14 @@
         <v>117</v>
       </c>
       <c r="H20" s="15">
-        <f>approx!I20</f>
+        <f>approx!J20</f>
         <v>2488</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>130</v>
       </c>
       <c r="J20" s="25">
-        <f>H20*approx!P20</f>
+        <f>H20*approx!R20</f>
         <v>17.416</v>
       </c>
       <c r="K20" s="41">
@@ -3273,15 +3319,15 @@
         <v>80</v>
       </c>
       <c r="B21" s="25">
-        <f>approx!P21/approx!O21</f>
+        <f>approx!R21/approx!Q21</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="C21" s="15">
-        <f>MAX(0, (approx!P21*(approx!I21-1)+approx!N21)/approx!O21-approx!H21)</f>
+        <f>MAX(0, (approx!R21*(approx!J21-1)+approx!P21)/approx!Q21-approx!I21)</f>
         <v>1943.1904761904761</v>
       </c>
       <c r="D21" s="45">
-        <f>approx!H21+C21</f>
+        <f>approx!I21+C21</f>
         <v>6748.1904761904761</v>
       </c>
       <c r="E21" s="21">
@@ -3296,14 +3342,14 @@
         <v>117</v>
       </c>
       <c r="H21" s="15">
-        <f>approx!I21</f>
+        <f>approx!J21</f>
         <v>4806</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>119</v>
       </c>
       <c r="J21" s="25">
-        <f>H21*approx!P21</f>
+        <f>H21*approx!R21</f>
         <v>11.5344</v>
       </c>
       <c r="K21" s="41">
@@ -3316,15 +3362,15 @@
         <v>25</v>
       </c>
       <c r="B22" s="25">
-        <f>approx!P22/approx!O22</f>
+        <f>approx!R22/approx!Q22</f>
         <v>1.5666666666666667</v>
       </c>
       <c r="C22" s="15">
-        <f>MAX(0, (approx!P22*(approx!I22-1)+approx!N22)/approx!O22-approx!H22)</f>
+        <f>MAX(0, (approx!R22*(approx!J22-1)+approx!P22)/approx!Q22-approx!I22)</f>
         <v>1667.6</v>
       </c>
       <c r="D22" s="49">
-        <f>approx!H22+C22</f>
+        <f>approx!I22+C22</f>
         <v>2804.6</v>
       </c>
       <c r="E22" s="21">
@@ -3339,14 +3385,14 @@
         <v>117</v>
       </c>
       <c r="H22" s="15">
-        <f>approx!I22</f>
+        <f>approx!J22</f>
         <v>1138</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>129</v>
       </c>
       <c r="J22" s="25">
-        <f>H22*approx!P22</f>
+        <f>H22*approx!R22</f>
         <v>5.3486000000000002</v>
       </c>
       <c r="K22" s="41">
@@ -3359,15 +3405,15 @@
         <v>81</v>
       </c>
       <c r="B23" s="25">
-        <f>approx!P23/approx!O23</f>
+        <f>approx!R23/approx!Q23</f>
         <v>1.75</v>
       </c>
       <c r="C23" s="15">
-        <f>MAX(0, (approx!P23*(approx!I23-1)+approx!N23)/approx!O23-approx!H23)</f>
+        <f>MAX(0, (approx!R23*(approx!J23-1)+approx!P23)/approx!Q23-approx!I23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="49">
-        <f>approx!H23+C23</f>
+        <f>approx!I23+C23</f>
         <v>4838</v>
       </c>
       <c r="E23" s="21">
@@ -3382,14 +3428,14 @@
         <v>117</v>
       </c>
       <c r="H23" s="15">
-        <f>approx!I23</f>
+        <f>approx!J23</f>
         <v>470</v>
       </c>
       <c r="I23" s="40" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="25">
-        <f>H23*approx!P23</f>
+        <f>H23*approx!R23</f>
         <v>1.974</v>
       </c>
       <c r="K23" s="41">
@@ -3402,15 +3448,15 @@
         <v>82</v>
       </c>
       <c r="B24" s="25">
-        <f>approx!P24/approx!O24</f>
+        <f>approx!R24/approx!Q24</f>
         <v>1.8333333333333335</v>
       </c>
       <c r="C24" s="15">
-        <f>MAX(0, (approx!P24*(approx!I24-1)+approx!N24)/approx!O24-approx!H24)</f>
+        <f>MAX(0, (approx!R24*(approx!J24-1)+approx!P24)/approx!Q24-approx!I24)</f>
         <v>6691.6111111111113</v>
       </c>
       <c r="D24" s="45">
-        <f>approx!H24+C24</f>
+        <f>approx!I24+C24</f>
         <v>11464.611111111111</v>
       </c>
       <c r="E24" s="21">
@@ -3425,14 +3471,14 @@
         <v>117</v>
       </c>
       <c r="H24" s="15">
-        <f>approx!I24</f>
+        <f>approx!J24</f>
         <v>4774</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>120</v>
       </c>
       <c r="J24" s="25">
-        <f>H24*approx!P24</f>
+        <f>H24*approx!R24</f>
         <v>15.754199999999999</v>
       </c>
       <c r="K24" s="41">
@@ -3501,14 +3547,14 @@
       <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="57"/>
       <c r="J1" t="s">
         <v>113</v>
       </c>

--- a/cs534L-SAGmf.xlsx
+++ b/cs534L-SAGmf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="142">
   <si>
     <t>Dataset</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>SVRG</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -568,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,6 +679,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -691,10 +697,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1337,23 +1343,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="F1" s="58"/>
+      <c r="G1" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" s="22" t="s">
@@ -1748,77 +1754,76 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" style="11" customWidth="1"/>
     <col min="2" max="4" width="10.5546875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="28" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="28" customWidth="1"/>
     <col min="7" max="7" width="2.88671875" style="28" customWidth="1"/>
     <col min="8" max="9" width="7.5546875" style="32" customWidth="1"/>
     <col min="10" max="11" width="8.77734375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="2.21875" style="31" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" style="24" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="6.21875" style="24" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" style="24" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="24" customWidth="1"/>
-    <col min="18" max="19" width="8.33203125" style="24" customWidth="1"/>
-    <col min="20" max="20" width="2.109375" style="24" customWidth="1"/>
-    <col min="21" max="22" width="7" style="11" customWidth="1"/>
-    <col min="23" max="23" width="8" style="11" customWidth="1"/>
-    <col min="24" max="25" width="7" style="11" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="3" style="31" customWidth="1"/>
+    <col min="13" max="17" width="8.109375" style="24" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="24" customWidth="1"/>
+    <col min="19" max="20" width="8.33203125" style="24" customWidth="1"/>
+    <col min="21" max="21" width="2.109375" style="24" customWidth="1"/>
+    <col min="22" max="23" width="7" style="11" customWidth="1"/>
+    <col min="24" max="24" width="8" style="11" customWidth="1"/>
+    <col min="25" max="26" width="7" style="11" customWidth="1"/>
+    <col min="27" max="27" width="7.44140625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="27"/>
       <c r="F1" s="53"/>
       <c r="G1" s="27"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
       <c r="L1" s="30"/>
       <c r="M1" s="61" t="s">
         <v>83</v>
       </c>
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="61"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="59" t="s">
+      <c r="T1" s="61"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59" t="s">
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1860,39 +1865,42 @@
       <c r="O2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="R2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="S2" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="T2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="X2" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="Y2" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="AA2" s="43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
@@ -1920,28 +1928,28 @@
       <c r="Q3" s="32"/>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
       <c r="U3" s="32"/>
       <c r="V3" s="32"/>
       <c r="W3" s="32"/>
       <c r="X3" s="32"/>
       <c r="Y3" s="32"/>
       <c r="Z3" s="32"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA3" s="32"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="27"/>
       <c r="F5" s="53"/>
       <c r="G5" s="27"/>
     </row>
-    <row r="6" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
@@ -1958,7 +1966,9 @@
         <f>D6-C6</f>
         <v>-1.8499999999999961E-2</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>1.2579</v>
+      </c>
       <c r="G6" s="28"/>
       <c r="H6" s="32">
         <v>500</v>
@@ -1969,7 +1979,9 @@
       <c r="J6" s="32">
         <v>2474</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="32">
+        <v>587</v>
+      </c>
       <c r="L6" s="31"/>
       <c r="M6" s="24">
         <v>7.2293000000000003</v>
@@ -1981,24 +1993,29 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="P6" s="24">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="Q6" s="24">
         <v>7.8907999999999996</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="R6" s="24">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="R6" s="24">
+      <c r="S6" s="24">
         <v>5.1000000000000004E-3</v>
       </c>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
+      <c r="T6" s="25">
+        <v>5.5999999999999999E-3</v>
+      </c>
       <c r="U6" s="24"/>
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
       <c r="Y6" s="24"/>
       <c r="Z6" s="24"/>
-    </row>
-    <row r="7" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="24"/>
+    </row>
+    <row r="7" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>80</v>
       </c>
@@ -2015,7 +2032,9 @@
         <f t="shared" ref="E7:E24" si="0">D7-C7</f>
         <v>-0.12440000000000001</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>1.4046000000000001</v>
+      </c>
       <c r="G7" s="28"/>
       <c r="H7" s="32">
         <v>500</v>
@@ -2026,7 +2045,9 @@
       <c r="J7" s="34">
         <v>4489</v>
       </c>
-      <c r="K7" s="34"/>
+      <c r="K7" s="34">
+        <v>121</v>
+      </c>
       <c r="L7" s="31"/>
       <c r="M7" s="24">
         <v>1.8077000000000001</v>
@@ -2038,24 +2059,29 @@
         <v>1.8E-3</v>
       </c>
       <c r="P7" s="24">
+        <v>2E-3</v>
+      </c>
+      <c r="Q7" s="24">
         <v>2.0920000000000001</v>
-      </c>
-      <c r="Q7" s="24">
-        <v>2.3999999999999998E-3</v>
       </c>
       <c r="R7" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="S7" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="T7" s="25">
+        <v>4.5999999999999999E-3</v>
+      </c>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
       <c r="Y7" s="24"/>
       <c r="Z7" s="24"/>
-    </row>
-    <row r="8" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA7" s="24"/>
+    </row>
+    <row r="8" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>25</v>
       </c>
@@ -2072,7 +2098,9 @@
         <f t="shared" si="0"/>
         <v>1.0000000000000009E-3</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>1.0246</v>
+      </c>
       <c r="G8" s="28"/>
       <c r="H8" s="32">
         <v>500</v>
@@ -2083,7 +2111,9 @@
       <c r="J8" s="32">
         <v>4145</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="32">
+        <v>1887</v>
+      </c>
       <c r="L8" s="31"/>
       <c r="M8" s="24">
         <v>2.0480999999999998</v>
@@ -2095,24 +2125,29 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="P8" s="24">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="Q8" s="24">
         <v>2.3018999999999998</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="R8" s="24">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="R8" s="24">
+      <c r="S8" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="25">
+        <v>5.1999999999999998E-3</v>
+      </c>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
-    </row>
-    <row r="9" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA8" s="24"/>
+    </row>
+    <row r="9" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>81</v>
       </c>
@@ -2129,7 +2164,9 @@
         <f t="shared" si="0"/>
         <v>-3.8000000000000034E-2</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>43.808500000000002</v>
+      </c>
       <c r="G9" s="28"/>
       <c r="H9" s="32">
         <v>500</v>
@@ -2140,7 +2177,9 @@
       <c r="J9" s="34">
         <v>1357</v>
       </c>
-      <c r="K9" s="34"/>
+      <c r="K9" s="34">
+        <v>954</v>
+      </c>
       <c r="L9" s="31"/>
       <c r="M9" s="24">
         <v>6.2801</v>
@@ -2152,24 +2191,29 @@
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="P9" s="24">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="Q9" s="24">
         <v>7.0240999999999998</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="R9" s="24">
         <v>2.3E-3</v>
       </c>
-      <c r="R9" s="24">
+      <c r="S9" s="24">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
+      <c r="T9" s="25">
+        <v>4.7000000000000002E-3</v>
+      </c>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
-    </row>
-    <row r="10" spans="1:26" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="24"/>
+    </row>
+    <row r="10" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
@@ -2186,7 +2230,9 @@
         <f t="shared" si="0"/>
         <v>-3.2599999999999962E-2</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>0.84350000000000003</v>
+      </c>
       <c r="G10" s="28"/>
       <c r="H10" s="32">
         <v>500</v>
@@ -2197,7 +2243,9 @@
       <c r="J10" s="32">
         <v>3857</v>
       </c>
-      <c r="K10" s="32"/>
+      <c r="K10" s="32">
+        <v>270</v>
+      </c>
       <c r="L10" s="31"/>
       <c r="M10" s="24">
         <v>4.0510999999999999</v>
@@ -2209,34 +2257,39 @@
         <v>2.8E-3</v>
       </c>
       <c r="P10" s="24">
+        <v>2.8E-3</v>
+      </c>
+      <c r="Q10" s="24">
         <v>4.2845000000000004</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="R10" s="24">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="R10" s="24">
+      <c r="S10" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="T10" s="25">
+        <v>3.0999999999999999E-3</v>
+      </c>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
       <c r="Z10" s="24"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA10" s="24"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
@@ -2253,6 +2306,9 @@
         <f t="shared" si="0"/>
         <v>8.2999999999999741E-4</v>
       </c>
+      <c r="F13" s="28">
+        <v>-6.7100000000000007E-2</v>
+      </c>
       <c r="H13" s="32">
         <v>500</v>
       </c>
@@ -2262,6 +2318,9 @@
       <c r="J13" s="32">
         <v>1868</v>
       </c>
+      <c r="K13" s="32">
+        <v>4228</v>
+      </c>
       <c r="M13" s="24">
         <v>38.302199999999999</v>
       </c>
@@ -2272,16 +2331,22 @@
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="P13" s="24">
+        <v>1.35E-2</v>
+      </c>
+      <c r="Q13" s="24">
         <v>40.990699999999997</v>
       </c>
-      <c r="Q13" s="24">
+      <c r="R13" s="24">
         <v>5.3E-3</v>
       </c>
-      <c r="R13" s="24">
+      <c r="S13" s="24">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T13" s="24">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>80</v>
       </c>
@@ -2298,6 +2363,9 @@
         <f t="shared" si="0"/>
         <v>2.0000000000000018E-2</v>
       </c>
+      <c r="F14" s="28" t="s">
+        <v>141</v>
+      </c>
       <c r="H14" s="32">
         <v>500</v>
       </c>
@@ -2307,6 +2375,9 @@
       <c r="J14" s="32">
         <v>1486</v>
       </c>
+      <c r="K14" s="32">
+        <v>1331</v>
+      </c>
       <c r="M14" s="24">
         <v>20.59</v>
       </c>
@@ -2317,16 +2388,22 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="P14" s="24">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="Q14" s="24">
         <v>23.676300000000001</v>
       </c>
-      <c r="Q14" s="24">
+      <c r="R14" s="24">
         <v>5.8999999999999999E-3</v>
       </c>
-      <c r="R14" s="24">
+      <c r="S14" s="24">
         <v>1.0699999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T14" s="24">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
@@ -2343,6 +2420,9 @@
         <f t="shared" si="0"/>
         <v>3.0000000000002247E-4</v>
       </c>
+      <c r="F15" s="28">
+        <v>-0.1547</v>
+      </c>
       <c r="H15" s="32">
         <v>500</v>
       </c>
@@ -2352,6 +2432,9 @@
       <c r="J15" s="32">
         <v>249</v>
       </c>
+      <c r="K15" s="32">
+        <v>4016</v>
+      </c>
       <c r="M15" s="24">
         <v>8.3247999999999998</v>
       </c>
@@ -2362,16 +2445,22 @@
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="P15" s="24">
+        <v>6.6E-3</v>
+      </c>
+      <c r="Q15" s="24">
         <v>8.548</v>
       </c>
-      <c r="Q15" s="24">
+      <c r="R15" s="24">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="R15" s="24">
+      <c r="S15" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="T15" s="24">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>81</v>
       </c>
@@ -2388,6 +2477,9 @@
         <f t="shared" si="0"/>
         <v>1.9000000000000128E-3</v>
       </c>
+      <c r="F16" s="28">
+        <v>-7.6600000000000001E-2</v>
+      </c>
       <c r="H16" s="32">
         <v>500</v>
       </c>
@@ -2397,6 +2489,9 @@
       <c r="J16" s="32">
         <v>917</v>
       </c>
+      <c r="K16" s="32">
+        <v>1530</v>
+      </c>
       <c r="M16" s="24">
         <v>33.615400000000001</v>
       </c>
@@ -2407,16 +2502,22 @@
         <v>1.26E-2</v>
       </c>
       <c r="P16" s="24">
+        <v>1.06E-2</v>
+      </c>
+      <c r="Q16" s="24">
         <v>37.056399999999996</v>
       </c>
-      <c r="Q16" s="24">
+      <c r="R16" s="24">
         <v>5.3E-3</v>
       </c>
-      <c r="R16" s="24">
+      <c r="S16" s="24">
         <v>1.0500000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T16" s="24">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>82</v>
       </c>
@@ -2433,6 +2534,9 @@
         <f t="shared" si="0"/>
         <v>1.9000000000000128E-3</v>
       </c>
+      <c r="F17" s="28">
+        <v>-4.0899999999999999E-2</v>
+      </c>
       <c r="H17" s="32">
         <v>500</v>
       </c>
@@ -2442,6 +2546,9 @@
       <c r="J17" s="32">
         <v>3460</v>
       </c>
+      <c r="K17" s="32">
+        <v>3259</v>
+      </c>
       <c r="M17" s="24">
         <v>19.432700000000001</v>
       </c>
@@ -2452,26 +2559,32 @@
         <v>8.8000000000000005E-3</v>
       </c>
       <c r="P17" s="24">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q17" s="24">
         <v>21.774699999999999</v>
       </c>
-      <c r="Q17" s="24">
+      <c r="R17" s="24">
         <v>3.8E-3</v>
       </c>
-      <c r="R17" s="24">
+      <c r="S17" s="24">
         <v>7.7999999999999996E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T17" s="24">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
@@ -2488,6 +2601,9 @@
         <f t="shared" si="0"/>
         <v>-1.17E-2</v>
       </c>
+      <c r="F20" s="28">
+        <v>-6.5495999999999999</v>
+      </c>
       <c r="H20" s="32">
         <v>500</v>
       </c>
@@ -2497,6 +2613,9 @@
       <c r="J20" s="32">
         <v>2488</v>
       </c>
+      <c r="K20" s="32">
+        <v>4739</v>
+      </c>
       <c r="M20" s="24">
         <v>11.6623</v>
       </c>
@@ -2507,16 +2626,22 @@
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="P20" s="24">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="Q20" s="24">
         <v>12.8986</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="R20" s="24">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="R20" s="24">
+      <c r="S20" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T20" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>80</v>
       </c>
@@ -2533,6 +2658,9 @@
         <f t="shared" si="0"/>
         <v>-1.29E-2</v>
       </c>
+      <c r="F21" s="28">
+        <v>-7.1139999999999999</v>
+      </c>
       <c r="H21" s="32">
         <v>500</v>
       </c>
@@ -2542,6 +2670,9 @@
       <c r="J21" s="32">
         <v>4806</v>
       </c>
+      <c r="K21" s="32">
+        <v>4801</v>
+      </c>
       <c r="M21" s="24">
         <v>2.1789999999999998</v>
       </c>
@@ -2552,16 +2683,22 @@
         <v>1.8E-3</v>
       </c>
       <c r="P21" s="24">
+        <v>1.8E-3</v>
+      </c>
+      <c r="Q21" s="24">
         <v>2.6392000000000002</v>
       </c>
-      <c r="Q21" s="24">
+      <c r="R21" s="24">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="R21" s="24">
+      <c r="S21" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T21" s="24">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>25</v>
       </c>
@@ -2578,6 +2715,9 @@
         <f t="shared" si="0"/>
         <v>-3.8000000000000004E-3</v>
       </c>
+      <c r="F22" s="28">
+        <v>-2.0003000000000002</v>
+      </c>
       <c r="H22" s="32">
         <v>500</v>
       </c>
@@ -2587,6 +2727,9 @@
       <c r="J22" s="32">
         <v>1138</v>
       </c>
+      <c r="K22" s="32">
+        <v>4016</v>
+      </c>
       <c r="M22" s="24">
         <v>2.6092</v>
       </c>
@@ -2597,16 +2740,22 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="P22" s="24">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q22" s="24">
         <v>3.0699000000000001</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="R22" s="24">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R22" s="24">
+      <c r="S22" s="24">
         <v>4.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T22" s="24">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>81</v>
       </c>
@@ -2623,6 +2772,9 @@
         <f t="shared" si="0"/>
         <v>-1.1299999999999999E-2</v>
       </c>
+      <c r="F23" s="28">
+        <v>-8.6523000000000003</v>
+      </c>
       <c r="H23" s="32">
         <v>500</v>
       </c>
@@ -2632,7 +2784,9 @@
       <c r="J23" s="34">
         <v>470</v>
       </c>
-      <c r="K23" s="34"/>
+      <c r="K23" s="34">
+        <v>4928</v>
+      </c>
       <c r="M23" s="24">
         <v>7.2591999999999999</v>
       </c>
@@ -2643,16 +2797,22 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="P23" s="24">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="Q23" s="24">
         <v>8.2581000000000007</v>
       </c>
-      <c r="Q23" s="24">
+      <c r="R23" s="24">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="R23" s="24">
+      <c r="S23" s="24">
         <v>4.1999999999999997E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T23" s="24">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>82</v>
       </c>
@@ -2669,6 +2829,9 @@
         <f t="shared" si="0"/>
         <v>-2.3599999999999999E-2</v>
       </c>
+      <c r="F24" s="28">
+        <v>-12.7331</v>
+      </c>
       <c r="H24" s="32">
         <v>500</v>
       </c>
@@ -2678,6 +2841,9 @@
       <c r="J24" s="32">
         <v>4774</v>
       </c>
+      <c r="K24" s="32">
+        <v>4733</v>
+      </c>
       <c r="M24" s="24">
         <v>4.6547000000000001</v>
       </c>
@@ -2688,13 +2854,19 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="P24" s="24">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="Q24" s="24">
         <v>4.8853999999999997</v>
       </c>
-      <c r="Q24" s="24">
+      <c r="R24" s="24">
         <v>1.8E-3</v>
       </c>
-      <c r="R24" s="24">
+      <c r="S24" s="24">
         <v>3.3E-3</v>
+      </c>
+      <c r="T24" s="24">
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2702,11 +2874,11 @@
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="V1:X1"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="Q1:T1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2737,36 +2909,36 @@
       <c r="A1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="57"/>
+      <c r="G1" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="66" t="s">
+      <c r="H1" s="58"/>
+      <c r="I1" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="64" t="s">
+      <c r="J1" s="67"/>
+      <c r="K1" s="65" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="20" t="s">
         <v>36</v>
       </c>
@@ -2785,7 +2957,7 @@
       <c r="J2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
@@ -2810,21 +2982,21 @@
       <c r="A5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="25">
-        <f>approx!R6/approx!Q6</f>
+        <f>approx!S6/approx!R6</f>
         <v>1.7586206896551726</v>
       </c>
       <c r="C6" s="15">
-        <f>MAX(0, (approx!R6*(approx!J6-1)+approx!P6)/approx!Q6-approx!I6)</f>
+        <f>MAX(0, (approx!S6*(approx!J6-1)+approx!Q6)/approx!R6-approx!I6)</f>
         <v>4597.0344827586214</v>
       </c>
       <c r="D6" s="45">
@@ -2850,7 +3022,7 @@
         <v>122</v>
       </c>
       <c r="J6" s="25">
-        <f>H6*approx!R6</f>
+        <f>H6*approx!S6</f>
         <v>12.617400000000002</v>
       </c>
       <c r="K6" s="41">
@@ -2867,7 +3039,7 @@
         <v>1.3846153846153846</v>
       </c>
       <c r="C7" s="15">
-        <f>MAX(0, (approx!R7*(approx!J7-1)+approx!P7)/approx!Q7-approx!I7)</f>
+        <f>MAX(0, (approx!S7*(approx!J7-1)+approx!Q7)/approx!R7-approx!I7)</f>
         <v>4444.666666666667</v>
       </c>
       <c r="D7" s="45">
@@ -2893,7 +3065,7 @@
         <v>128</v>
       </c>
       <c r="J7" s="25">
-        <f>H7*approx!R7</f>
+        <f>H7*approx!S7</f>
         <v>10.773599999999998</v>
       </c>
       <c r="K7" s="41">
@@ -2906,11 +3078,11 @@
         <v>25</v>
       </c>
       <c r="B8" s="25">
-        <f>approx!R8/approx!Q8</f>
+        <f>approx!S8/approx!R8</f>
         <v>1.5555555555555554</v>
       </c>
       <c r="C8" s="15">
-        <f>MAX(0, (approx!R8*(approx!J8-1)+approx!P8)/approx!Q8-approx!I8)</f>
+        <f>MAX(0, (approx!S8*(approx!J8-1)+approx!Q8)/approx!R8-approx!I8)</f>
         <v>3154.7777777777765</v>
       </c>
       <c r="D8" s="45">
@@ -2932,11 +3104,11 @@
         <v>4145</v>
       </c>
       <c r="I8" s="25">
-        <f>approx!Q8*G8</f>
+        <f>approx!R8*G8</f>
         <v>13.9131</v>
       </c>
       <c r="J8" s="25">
-        <f>H8*approx!R8</f>
+        <f>H8*approx!S8</f>
         <v>17.408999999999999</v>
       </c>
       <c r="K8" s="48">
@@ -2949,11 +3121,11 @@
         <v>81</v>
       </c>
       <c r="B9" s="25">
-        <f>approx!R9/approx!Q9</f>
+        <f>approx!S9/approx!R9</f>
         <v>1.4782608695652173</v>
       </c>
       <c r="C9" s="15">
-        <f>MAX(0, (approx!R9*(approx!J9-1)+approx!P9)/approx!Q9-approx!I9)</f>
+        <f>MAX(0, (approx!S9*(approx!J9-1)+approx!Q9)/approx!R9-approx!I9)</f>
         <v>3196.478260869565</v>
       </c>
       <c r="D9" s="45">
@@ -2979,7 +3151,7 @@
         <v>124</v>
       </c>
       <c r="J9" s="25">
-        <f>H9*approx!R9</f>
+        <f>H9*approx!S9</f>
         <v>4.6137999999999995</v>
       </c>
       <c r="K9" s="41">
@@ -2992,11 +3164,11 @@
         <v>82</v>
       </c>
       <c r="B10" s="25">
-        <f>approx!R10/approx!Q10</f>
+        <f>approx!S10/approx!R10</f>
         <v>1.3636363636363635</v>
       </c>
       <c r="C10" s="15">
-        <f>MAX(0, (approx!R10*(approx!J10-1)+approx!P10)/approx!Q10-approx!I10)</f>
+        <f>MAX(0, (approx!S10*(approx!J10-1)+approx!Q10)/approx!R10-approx!I10)</f>
         <v>3349.6818181818171</v>
       </c>
       <c r="D10" s="45">
@@ -3022,7 +3194,7 @@
         <v>123</v>
       </c>
       <c r="J10" s="25">
-        <f>H10*approx!R10</f>
+        <f>H10*approx!S10</f>
         <v>11.571</v>
       </c>
       <c r="K10" s="41">
@@ -3038,21 +3210,21 @@
         <v>91</v>
       </c>
       <c r="D12" s="45"/>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="25">
-        <f>approx!R13/approx!Q13</f>
+        <f>approx!S13/approx!R13</f>
         <v>2.358490566037736</v>
       </c>
       <c r="C13" s="15">
-        <f>MAX(0, (approx!R13*(approx!J13-1)+approx!P13)/approx!Q13-approx!I13)</f>
+        <f>MAX(0, (approx!S13*(approx!J13-1)+approx!Q13)/approx!R13-approx!I13)</f>
         <v>10270.396226415094</v>
       </c>
       <c r="D13" s="45">
@@ -3078,7 +3250,7 @@
         <v>125</v>
       </c>
       <c r="J13" s="25">
-        <f>H13*approx!R13</f>
+        <f>H13*approx!S13</f>
         <v>23.35</v>
       </c>
       <c r="K13" s="41">
@@ -3091,11 +3263,11 @@
         <v>80</v>
       </c>
       <c r="B14" s="25">
-        <f>approx!R14/approx!Q14</f>
+        <f>approx!S14/approx!R14</f>
         <v>1.8135593220338984</v>
       </c>
       <c r="C14" s="15">
-        <f>MAX(0, (approx!R14*(approx!J14-1)+approx!P14)/approx!Q14-approx!I14)</f>
+        <f>MAX(0, (approx!S14*(approx!J14-1)+approx!Q14)/approx!R14-approx!I14)</f>
         <v>5221.0677966101703</v>
       </c>
       <c r="D14" s="45">
@@ -3121,7 +3293,7 @@
         <v>126</v>
       </c>
       <c r="J14" s="25">
-        <f>H14*approx!R14</f>
+        <f>H14*approx!S14</f>
         <v>15.9002</v>
       </c>
       <c r="K14" s="41">
@@ -3134,11 +3306,11 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <f>approx!R15/approx!Q15</f>
+        <f>approx!S15/approx!R15</f>
         <v>1.4666666666666666</v>
       </c>
       <c r="C15" s="15">
-        <f>MAX(0, (approx!R15*(approx!J15-1)+approx!P15)/approx!Q15-approx!I15)</f>
+        <f>MAX(0, (approx!S15*(approx!J15-1)+approx!Q15)/approx!R15-approx!I15)</f>
         <v>1255.4666666666667</v>
       </c>
       <c r="D15" s="49">
@@ -3164,7 +3336,7 @@
         <v>127</v>
       </c>
       <c r="J15" s="25">
-        <f>H15*approx!R15</f>
+        <f>H15*approx!S15</f>
         <v>2.7389999999999999</v>
       </c>
       <c r="K15" s="41">
@@ -3177,11 +3349,11 @@
         <v>81</v>
       </c>
       <c r="B16" s="25">
-        <f>approx!R16/approx!Q16</f>
+        <f>approx!S16/approx!R16</f>
         <v>1.9811320754716981</v>
       </c>
       <c r="C16" s="15">
-        <f>MAX(0, (approx!R16*(approx!J16-1)+approx!P16)/approx!Q16-approx!I16)</f>
+        <f>MAX(0, (approx!S16*(approx!J16-1)+approx!Q16)/approx!R16-approx!I16)</f>
         <v>7890.4905660377353</v>
       </c>
       <c r="D16" s="45">
@@ -3207,7 +3379,7 @@
         <v>125</v>
       </c>
       <c r="J16" s="25">
-        <f>H16*approx!R16</f>
+        <f>H16*approx!S16</f>
         <v>9.6285000000000007</v>
       </c>
       <c r="K16" s="41">
@@ -3220,11 +3392,11 @@
         <v>82</v>
       </c>
       <c r="B17" s="25">
-        <f>approx!R17/approx!Q17</f>
+        <f>approx!S17/approx!R17</f>
         <v>2.0526315789473681</v>
       </c>
       <c r="C17" s="15">
-        <f>MAX(0, (approx!R17*(approx!J17-1)+approx!P17)/approx!Q17-approx!I17)</f>
+        <f>MAX(0, (approx!S17*(approx!J17-1)+approx!Q17)/approx!R17-approx!I17)</f>
         <v>9371.2368421052633</v>
       </c>
       <c r="D17" s="45">
@@ -3250,7 +3422,7 @@
         <v>118</v>
       </c>
       <c r="J17" s="25">
-        <f>H17*approx!R17</f>
+        <f>H17*approx!S17</f>
         <v>26.988</v>
       </c>
       <c r="K17" s="41">
@@ -3266,21 +3438,21 @@
         <v>92</v>
       </c>
       <c r="D19" s="45"/>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B20" s="25">
-        <f>approx!R20/approx!Q20</f>
+        <f>approx!S20/approx!R20</f>
         <v>2</v>
       </c>
       <c r="C20" s="15">
-        <f>MAX(0, (approx!R20*(approx!J20-1)+approx!P20)/approx!Q20-approx!I20)</f>
+        <f>MAX(0, (approx!S20*(approx!J20-1)+approx!Q20)/approx!R20-approx!I20)</f>
         <v>6172.3142857142866</v>
       </c>
       <c r="D20" s="45">
@@ -3306,7 +3478,7 @@
         <v>130</v>
       </c>
       <c r="J20" s="25">
-        <f>H20*approx!R20</f>
+        <f>H20*approx!S20</f>
         <v>17.416</v>
       </c>
       <c r="K20" s="41">
@@ -3319,11 +3491,11 @@
         <v>80</v>
       </c>
       <c r="B21" s="25">
-        <f>approx!R21/approx!Q21</f>
+        <f>approx!S21/approx!R21</f>
         <v>1.1428571428571428</v>
       </c>
       <c r="C21" s="15">
-        <f>MAX(0, (approx!R21*(approx!J21-1)+approx!P21)/approx!Q21-approx!I21)</f>
+        <f>MAX(0, (approx!S21*(approx!J21-1)+approx!Q21)/approx!R21-approx!I21)</f>
         <v>1943.1904761904761</v>
       </c>
       <c r="D21" s="45">
@@ -3349,7 +3521,7 @@
         <v>119</v>
       </c>
       <c r="J21" s="25">
-        <f>H21*approx!R21</f>
+        <f>H21*approx!S21</f>
         <v>11.5344</v>
       </c>
       <c r="K21" s="41">
@@ -3362,11 +3534,11 @@
         <v>25</v>
       </c>
       <c r="B22" s="25">
-        <f>approx!R22/approx!Q22</f>
+        <f>approx!S22/approx!R22</f>
         <v>1.5666666666666667</v>
       </c>
       <c r="C22" s="15">
-        <f>MAX(0, (approx!R22*(approx!J22-1)+approx!P22)/approx!Q22-approx!I22)</f>
+        <f>MAX(0, (approx!S22*(approx!J22-1)+approx!Q22)/approx!R22-approx!I22)</f>
         <v>1667.6</v>
       </c>
       <c r="D22" s="49">
@@ -3392,7 +3564,7 @@
         <v>129</v>
       </c>
       <c r="J22" s="25">
-        <f>H22*approx!R22</f>
+        <f>H22*approx!S22</f>
         <v>5.3486000000000002</v>
       </c>
       <c r="K22" s="41">
@@ -3405,11 +3577,11 @@
         <v>81</v>
       </c>
       <c r="B23" s="25">
-        <f>approx!R23/approx!Q23</f>
+        <f>approx!S23/approx!R23</f>
         <v>1.75</v>
       </c>
       <c r="C23" s="15">
-        <f>MAX(0, (approx!R23*(approx!J23-1)+approx!P23)/approx!Q23-approx!I23)</f>
+        <f>MAX(0, (approx!S23*(approx!J23-1)+approx!Q23)/approx!R23-approx!I23)</f>
         <v>0</v>
       </c>
       <c r="D23" s="49">
@@ -3435,7 +3607,7 @@
         <v>128</v>
       </c>
       <c r="J23" s="25">
-        <f>H23*approx!R23</f>
+        <f>H23*approx!S23</f>
         <v>1.974</v>
       </c>
       <c r="K23" s="41">
@@ -3448,11 +3620,11 @@
         <v>82</v>
       </c>
       <c r="B24" s="25">
-        <f>approx!R24/approx!Q24</f>
+        <f>approx!S24/approx!R24</f>
         <v>1.8333333333333335</v>
       </c>
       <c r="C24" s="15">
-        <f>MAX(0, (approx!R24*(approx!J24-1)+approx!P24)/approx!Q24-approx!I24)</f>
+        <f>MAX(0, (approx!S24*(approx!J24-1)+approx!Q24)/approx!R24-approx!I24)</f>
         <v>6691.6111111111113</v>
       </c>
       <c r="D24" s="45">
@@ -3478,7 +3650,7 @@
         <v>120</v>
       </c>
       <c r="J24" s="25">
-        <f>H24*approx!R24</f>
+        <f>H24*approx!S24</f>
         <v>15.754199999999999</v>
       </c>
       <c r="K24" s="41">
@@ -3498,16 +3670,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3547,14 +3719,14 @@
       <c r="A1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="57"/>
+      <c r="E1" s="58"/>
       <c r="J1" t="s">
         <v>113</v>
       </c>
